--- a/docs/invoice12.xlsx
+++ b/docs/invoice12.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2121,7 +2121,7 @@
       <c r="A5" s="7" t="n"/>
       <c r="B5" s="52" t="inlineStr">
         <is>
-          <t>02/27/2024</t>
+          <t>02/29/2024</t>
         </is>
       </c>
       <c r="D5" s="88" t="n"/>
@@ -2134,7 +2134,7 @@
       <c r="K5" s="83" t="n"/>
       <c r="L5" s="96" t="inlineStr">
         <is>
-          <t>QR02272024AP101</t>
+          <t>QR02292024AP101</t>
         </is>
       </c>
       <c r="M5" s="97" t="n"/>
@@ -2430,22 +2430,22 @@
       <c r="A20" s="37" t="n"/>
       <c r="B20" s="28" t="inlineStr">
         <is>
-          <t>6838218601</t>
+          <t>47335037983</t>
         </is>
       </c>
       <c r="C20" s="29" t="inlineStr">
         <is>
-          <t>Zydus Pharmaceuticals USA Inc.</t>
+          <t>Sun Pharmaceutical Industries, Inc.</t>
         </is>
       </c>
       <c r="D20" s="29" t="inlineStr">
         <is>
-          <t>Glipizide and Metformin Hydrochloride</t>
+          <t>Cinacalcet</t>
         </is>
       </c>
       <c r="E20" s="30" t="inlineStr">
         <is>
-          <t>5 mg/1</t>
+          <t>30 mg/1</t>
         </is>
       </c>
       <c r="F20" s="30" t="inlineStr">
@@ -2455,3454 +2455,1066 @@
       </c>
       <c r="G20" s="30" t="inlineStr">
         <is>
-          <t>M201324</t>
+          <t>DND0467A</t>
         </is>
       </c>
       <c r="H20" s="30" t="inlineStr">
         <is>
-          <t>01/24/31</t>
+          <t>02/24</t>
         </is>
       </c>
       <c r="I20" s="30" t="inlineStr">
         <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J20" s="30" t="n">
-        <v>1</v>
+          <t>30 CT</t>
+        </is>
+      </c>
+      <c r="J20" s="30" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K20" s="30" t="n"/>
-      <c r="L20" s="30" t="n">
-        <v>9</v>
+      <c r="L20" s="30" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
       </c>
       <c r="M20" s="30" t="n">
-        <v>9</v>
+        <v>6720</v>
       </c>
       <c r="N20" s="19" t="n"/>
     </row>
     <row r="21" ht="20" customHeight="1" s="76">
       <c r="A21" s="37" t="n"/>
-      <c r="B21" s="31" t="inlineStr">
-        <is>
-          <t>7248510401</t>
-        </is>
-      </c>
-      <c r="C21" s="32" t="inlineStr">
-        <is>
-          <t>Armas Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="D21" s="32" t="inlineStr">
-        <is>
-          <t>CAFFEINE CITRATE</t>
-        </is>
-      </c>
-      <c r="E21" s="33" t="inlineStr">
-        <is>
-          <t>60 mg/3mL</t>
-        </is>
-      </c>
-      <c r="F21" s="33" t="inlineStr">
-        <is>
-          <t>INJECTION</t>
-        </is>
-      </c>
-      <c r="G21" s="33" t="inlineStr">
-        <is>
-          <t>CDBU0007B</t>
-        </is>
-      </c>
-      <c r="H21" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I21" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J21" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B21" s="31" t="n"/>
+      <c r="C21" s="32" t="n"/>
+      <c r="D21" s="32" t="n"/>
+      <c r="E21" s="33" t="n"/>
+      <c r="F21" s="33" t="n"/>
+      <c r="G21" s="33" t="n"/>
+      <c r="H21" s="33" t="n"/>
+      <c r="I21" s="33" t="n"/>
+      <c r="J21" s="33" t="n"/>
       <c r="K21" s="33" t="n"/>
-      <c r="L21" s="33" t="n">
-        <v>10</v>
-      </c>
-      <c r="M21" s="33" t="n">
-        <v>10</v>
-      </c>
+      <c r="L21" s="33" t="n"/>
+      <c r="M21" s="33" t="n"/>
       <c r="N21" s="19" t="n"/>
     </row>
     <row r="22" ht="20" customHeight="1" s="76">
       <c r="A22" s="37" t="n"/>
-      <c r="B22" s="28" t="inlineStr">
-        <is>
-          <t>6846231417</t>
-        </is>
-      </c>
-      <c r="C22" s="29" t="inlineStr">
-        <is>
-          <t>Glenmark Pharmaceuticals Inc., USA</t>
-        </is>
-      </c>
-      <c r="D22" s="29" t="inlineStr">
-        <is>
-          <t>Nystatin and Triamcinolone Acetonide</t>
-        </is>
-      </c>
-      <c r="E22" s="30" t="inlineStr">
-        <is>
-          <t>100000 [USP'U]/g</t>
-        </is>
-      </c>
-      <c r="F22" s="30" t="inlineStr">
-        <is>
-          <t>CREAM</t>
-        </is>
-      </c>
-      <c r="G22" s="30" t="inlineStr">
-        <is>
-          <t>05220410</t>
-        </is>
-      </c>
-      <c r="H22" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I22" s="30" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J22" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B22" s="28" t="n"/>
+      <c r="C22" s="29" t="n"/>
+      <c r="D22" s="29" t="n"/>
+      <c r="E22" s="30" t="n"/>
+      <c r="F22" s="30" t="n"/>
+      <c r="G22" s="30" t="n"/>
+      <c r="H22" s="30" t="n"/>
+      <c r="I22" s="30" t="n"/>
+      <c r="J22" s="30" t="n"/>
       <c r="K22" s="30" t="n"/>
-      <c r="L22" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="M22" s="30" t="n">
-        <v>10</v>
-      </c>
+      <c r="L22" s="30" t="n"/>
+      <c r="M22" s="30" t="n"/>
       <c r="N22" s="19" t="n"/>
     </row>
     <row r="23" ht="20" customHeight="1" s="76">
       <c r="A23" s="37" t="n"/>
-      <c r="B23" s="31" t="inlineStr">
-        <is>
-          <t>1657173528</t>
-        </is>
-      </c>
-      <c r="C23" s="32" t="inlineStr">
-        <is>
-          <t>Rising Pharma Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="D23" s="32" t="inlineStr">
-        <is>
-          <t>Methylergonovine Maleate</t>
-        </is>
-      </c>
-      <c r="E23" s="33" t="inlineStr">
-        <is>
-          <t>.2 mg/1</t>
-        </is>
-      </c>
-      <c r="F23" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G23" s="33" t="inlineStr">
-        <is>
-          <t>MM0221001A</t>
-        </is>
-      </c>
-      <c r="H23" s="33" t="inlineStr">
-        <is>
-          <t>04/23/30</t>
-        </is>
-      </c>
-      <c r="I23" s="33" t="inlineStr">
-        <is>
-          <t>28 CT</t>
-        </is>
-      </c>
-      <c r="J23" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B23" s="31" t="n"/>
+      <c r="C23" s="32" t="n"/>
+      <c r="D23" s="32" t="n"/>
+      <c r="E23" s="33" t="n"/>
+      <c r="F23" s="33" t="n"/>
+      <c r="G23" s="33" t="n"/>
+      <c r="H23" s="33" t="n"/>
+      <c r="I23" s="33" t="n"/>
+      <c r="J23" s="33" t="n"/>
       <c r="K23" s="33" t="n"/>
-      <c r="L23" s="33" t="n">
-        <v>10</v>
-      </c>
-      <c r="M23" s="33" t="n">
-        <v>10</v>
-      </c>
+      <c r="L23" s="33" t="n"/>
+      <c r="M23" s="33" t="n"/>
       <c r="N23" s="19" t="n"/>
     </row>
     <row r="24" ht="20" customHeight="1" s="76">
       <c r="A24" s="37" t="n"/>
-      <c r="B24" s="28" t="inlineStr">
-        <is>
-          <t>2420855555</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="inlineStr">
-        <is>
-          <t>Bausch &amp; Lomb Incorporated</t>
-        </is>
-      </c>
-      <c r="D24" s="29" t="inlineStr">
-        <is>
-          <t>Bacitracin Zinc and Polymyxin B Sulfate</t>
-        </is>
-      </c>
-      <c r="E24" s="30" t="inlineStr">
-        <is>
-          <t>500 [USP'U]/g</t>
-        </is>
-      </c>
-      <c r="F24" s="30" t="inlineStr">
-        <is>
-          <t>OINTMENT</t>
-        </is>
-      </c>
-      <c r="G24" s="30" t="inlineStr">
-        <is>
-          <t>359761</t>
-        </is>
-      </c>
-      <c r="H24" s="30" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I24" s="30" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J24" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="28" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="29" t="n"/>
+      <c r="E24" s="30" t="n"/>
+      <c r="F24" s="30" t="n"/>
+      <c r="G24" s="30" t="n"/>
+      <c r="H24" s="30" t="n"/>
+      <c r="I24" s="30" t="n"/>
+      <c r="J24" s="30" t="n"/>
       <c r="K24" s="30" t="n"/>
-      <c r="L24" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="M24" s="30" t="n">
-        <v>10</v>
-      </c>
+      <c r="L24" s="30" t="n"/>
+      <c r="M24" s="30" t="n"/>
       <c r="N24" s="19" t="n"/>
     </row>
     <row r="25" ht="20" customHeight="1" s="76">
       <c r="A25" s="37" t="n"/>
-      <c r="B25" s="31" t="inlineStr">
-        <is>
-          <t>2420855555</t>
-        </is>
-      </c>
-      <c r="C25" s="32" t="inlineStr">
-        <is>
-          <t>Bausch &amp; Lomb Incorporated</t>
-        </is>
-      </c>
-      <c r="D25" s="32" t="inlineStr">
-        <is>
-          <t>Bacitracin Zinc and Polymyxin B Sulfate</t>
-        </is>
-      </c>
-      <c r="E25" s="33" t="inlineStr">
-        <is>
-          <t>500 [USP'U]/g</t>
-        </is>
-      </c>
-      <c r="F25" s="33" t="inlineStr">
-        <is>
-          <t>OINTMENT</t>
-        </is>
-      </c>
-      <c r="G25" s="33" t="inlineStr">
-        <is>
-          <t>359761</t>
-        </is>
-      </c>
-      <c r="H25" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I25" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J25" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B25" s="31" t="n"/>
+      <c r="C25" s="32" t="n"/>
+      <c r="D25" s="32" t="n"/>
+      <c r="E25" s="33" t="n"/>
+      <c r="F25" s="33" t="n"/>
+      <c r="G25" s="33" t="n"/>
+      <c r="H25" s="33" t="n"/>
+      <c r="I25" s="33" t="n"/>
+      <c r="J25" s="33" t="n"/>
       <c r="K25" s="33" t="n"/>
-      <c r="L25" s="33" t="n">
-        <v>10</v>
-      </c>
-      <c r="M25" s="33" t="n">
-        <v>10</v>
-      </c>
+      <c r="L25" s="33" t="n"/>
+      <c r="M25" s="33" t="n"/>
       <c r="N25" s="19" t="n"/>
     </row>
     <row r="26" ht="20" customHeight="1" s="76">
       <c r="A26" s="37" t="n"/>
-      <c r="B26" s="28" t="inlineStr">
-        <is>
-          <t>6699313697</t>
-        </is>
-      </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>Prasco Laboratories</t>
-        </is>
-      </c>
-      <c r="D26" s="29" t="inlineStr">
-        <is>
-          <t>Fluticasone Furoate and Vilanterol</t>
-        </is>
-      </c>
-      <c r="E26" s="30" t="inlineStr">
-        <is>
-          <t>200 ug/1</t>
-        </is>
-      </c>
-      <c r="F26" s="30" t="inlineStr">
-        <is>
-          <t>POWDER</t>
-        </is>
-      </c>
-      <c r="G26" s="30" t="inlineStr">
-        <is>
-          <t>2E8M</t>
-        </is>
-      </c>
-      <c r="H26" s="30" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I26" s="30" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J26" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B26" s="28" t="n"/>
+      <c r="C26" s="29" t="n"/>
+      <c r="D26" s="29" t="n"/>
+      <c r="E26" s="30" t="n"/>
+      <c r="F26" s="30" t="n"/>
+      <c r="G26" s="30" t="n"/>
+      <c r="H26" s="30" t="n"/>
+      <c r="I26" s="30" t="n"/>
+      <c r="J26" s="30" t="n"/>
       <c r="K26" s="30" t="n"/>
-      <c r="L26" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="M26" s="30" t="n">
-        <v>10</v>
-      </c>
+      <c r="L26" s="30" t="n"/>
+      <c r="M26" s="30" t="n"/>
       <c r="N26" s="19" t="n"/>
     </row>
     <row r="27" ht="20" customHeight="1" s="76">
       <c r="A27" s="37" t="n"/>
-      <c r="B27" s="31" t="inlineStr">
-        <is>
-          <t>6787743305</t>
-        </is>
-      </c>
-      <c r="C27" s="32" t="inlineStr">
-        <is>
-          <t>Ascend Laboratories, LLC</t>
-        </is>
-      </c>
-      <c r="D27" s="32" t="inlineStr">
-        <is>
-          <t>Aripiprazole</t>
-        </is>
-      </c>
-      <c r="E27" s="33" t="inlineStr">
-        <is>
-          <t>15 mg/1</t>
-        </is>
-      </c>
-      <c r="F27" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G27" s="33" t="inlineStr">
-        <is>
-          <t>22140477</t>
-        </is>
-      </c>
-      <c r="H27" s="33" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I27" s="33" t="inlineStr">
-        <is>
-          <t>500 CT</t>
-        </is>
-      </c>
-      <c r="J27" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B27" s="31" t="n"/>
+      <c r="C27" s="32" t="n"/>
+      <c r="D27" s="32" t="n"/>
+      <c r="E27" s="33" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="33" t="n"/>
+      <c r="I27" s="33" t="n"/>
+      <c r="J27" s="33" t="n"/>
       <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n">
-        <v>9</v>
-      </c>
-      <c r="M27" s="33" t="n">
-        <v>9</v>
-      </c>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
       <c r="N27" s="19" t="n"/>
     </row>
     <row r="28" ht="20" customHeight="1" s="76">
       <c r="A28" s="37" t="n"/>
-      <c r="B28" s="28" t="inlineStr">
-        <is>
-          <t>5723709701</t>
-        </is>
-      </c>
-      <c r="C28" s="29" t="inlineStr">
-        <is>
-          <t>Rising Pharma Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="D28" s="29" t="inlineStr">
-        <is>
-          <t>Cefadroxil</t>
-        </is>
-      </c>
-      <c r="E28" s="30" t="inlineStr">
-        <is>
-          <t>250 mg/5mL</t>
-        </is>
-      </c>
-      <c r="F28" s="30" t="inlineStr">
-        <is>
-          <t>POWDER, FOR SUSPENSION</t>
-        </is>
-      </c>
-      <c r="G28" s="30" t="inlineStr">
-        <is>
-          <t>UDXDA22001A</t>
-        </is>
-      </c>
-      <c r="H28" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I28" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J28" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B28" s="28" t="n"/>
+      <c r="C28" s="29" t="n"/>
+      <c r="D28" s="29" t="n"/>
+      <c r="E28" s="30" t="n"/>
+      <c r="F28" s="30" t="n"/>
+      <c r="G28" s="30" t="n"/>
+      <c r="H28" s="30" t="n"/>
+      <c r="I28" s="30" t="n"/>
+      <c r="J28" s="30" t="n"/>
       <c r="K28" s="30" t="n"/>
-      <c r="L28" s="30" t="n">
-        <v>9</v>
-      </c>
-      <c r="M28" s="30" t="n">
-        <v>9</v>
-      </c>
+      <c r="L28" s="30" t="n"/>
+      <c r="M28" s="30" t="n"/>
       <c r="N28" s="19" t="n"/>
     </row>
     <row r="29" ht="20" customHeight="1" s="76">
       <c r="A29" s="37" t="n"/>
-      <c r="B29" s="31" t="inlineStr">
-        <is>
-          <t>2420855555</t>
-        </is>
-      </c>
-      <c r="C29" s="32" t="inlineStr">
-        <is>
-          <t>Bausch &amp; Lomb Incorporated</t>
-        </is>
-      </c>
-      <c r="D29" s="32" t="inlineStr">
-        <is>
-          <t>Bacitracin Zinc and Polymyxin B Sulfate</t>
-        </is>
-      </c>
-      <c r="E29" s="33" t="inlineStr">
-        <is>
-          <t>500 [USP'U]/g</t>
-        </is>
-      </c>
-      <c r="F29" s="33" t="inlineStr">
-        <is>
-          <t>OINTMENT</t>
-        </is>
-      </c>
-      <c r="G29" s="33" t="inlineStr">
-        <is>
-          <t>359761</t>
-        </is>
-      </c>
-      <c r="H29" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I29" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J29" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B29" s="31" t="n"/>
+      <c r="C29" s="32" t="n"/>
+      <c r="D29" s="32" t="n"/>
+      <c r="E29" s="33" t="n"/>
+      <c r="F29" s="33" t="n"/>
+      <c r="G29" s="33" t="n"/>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="33" t="n"/>
+      <c r="J29" s="33" t="n"/>
       <c r="K29" s="33" t="n"/>
-      <c r="L29" s="33" t="n">
-        <v>9</v>
-      </c>
-      <c r="M29" s="33" t="n">
-        <v>9</v>
-      </c>
+      <c r="L29" s="33" t="n"/>
+      <c r="M29" s="33" t="n"/>
       <c r="N29" s="19" t="n"/>
     </row>
     <row r="30" ht="20" customFormat="1" customHeight="1" s="84">
       <c r="A30" s="37" t="n"/>
-      <c r="B30" s="28" t="inlineStr">
-        <is>
-          <t>7347330630</t>
-        </is>
-      </c>
-      <c r="C30" s="29" t="inlineStr">
-        <is>
-          <t>Solaris Pharma Corporation</t>
-        </is>
-      </c>
-      <c r="D30" s="29" t="inlineStr">
-        <is>
-          <t>Clindamycin Phosphate and Tretinoin</t>
-        </is>
-      </c>
-      <c r="E30" s="30" t="inlineStr">
-        <is>
-          <t>10 mg/g</t>
-        </is>
-      </c>
-      <c r="F30" s="30" t="inlineStr">
-        <is>
-          <t>GEL</t>
-        </is>
-      </c>
-      <c r="G30" s="30" t="inlineStr">
-        <is>
-          <t>C10735</t>
-        </is>
-      </c>
-      <c r="H30" s="30" t="inlineStr">
-        <is>
-          <t>07/23/31</t>
-        </is>
-      </c>
-      <c r="I30" s="30" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J30" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B30" s="28" t="n"/>
+      <c r="C30" s="29" t="n"/>
+      <c r="D30" s="29" t="n"/>
+      <c r="E30" s="30" t="n"/>
+      <c r="F30" s="30" t="n"/>
+      <c r="G30" s="30" t="n"/>
+      <c r="H30" s="30" t="n"/>
+      <c r="I30" s="30" t="n"/>
+      <c r="J30" s="30" t="n"/>
       <c r="K30" s="30" t="n"/>
-      <c r="L30" s="30" t="n">
-        <v>9</v>
-      </c>
-      <c r="M30" s="30" t="n">
-        <v>9</v>
-      </c>
+      <c r="L30" s="30" t="n"/>
+      <c r="M30" s="30" t="n"/>
       <c r="N30" s="19" t="n"/>
     </row>
     <row r="31" ht="20" customFormat="1" customHeight="1" s="84">
       <c r="A31" s="37" t="n"/>
-      <c r="B31" s="31" t="inlineStr">
-        <is>
-          <t>6868280045</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>Oceanside Pharmaceuticals</t>
-        </is>
-      </c>
-      <c r="D31" s="32" t="inlineStr">
-        <is>
-          <t>Tretinoin</t>
-        </is>
-      </c>
-      <c r="E31" s="33" t="inlineStr">
-        <is>
-          <t>.05 g/100g</t>
-        </is>
-      </c>
-      <c r="F31" s="33" t="inlineStr">
-        <is>
-          <t>GEL</t>
-        </is>
-      </c>
-      <c r="G31" s="33" t="inlineStr">
-        <is>
-          <t>8134394</t>
-        </is>
-      </c>
-      <c r="H31" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I31" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J31" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B31" s="31" t="n"/>
+      <c r="C31" s="32" t="n"/>
+      <c r="D31" s="32" t="n"/>
+      <c r="E31" s="33" t="n"/>
+      <c r="F31" s="33" t="n"/>
+      <c r="G31" s="33" t="n"/>
+      <c r="H31" s="33" t="n"/>
+      <c r="I31" s="33" t="n"/>
+      <c r="J31" s="33" t="n"/>
       <c r="K31" s="33" t="n"/>
-      <c r="L31" s="33" t="n">
-        <v>9</v>
-      </c>
-      <c r="M31" s="33" t="n">
-        <v>9</v>
-      </c>
+      <c r="L31" s="33" t="n"/>
+      <c r="M31" s="33" t="n"/>
       <c r="N31" s="19" t="n"/>
     </row>
     <row r="32" ht="20" customHeight="1" s="76">
       <c r="A32" s="36" t="n"/>
-      <c r="B32" s="28" t="inlineStr">
-        <is>
-          <t>5723703750</t>
-        </is>
-      </c>
-      <c r="C32" s="29" t="inlineStr">
-        <is>
-          <t>Rising Health, LLC</t>
-        </is>
-      </c>
-      <c r="D32" s="29" t="inlineStr">
-        <is>
-          <t>Cefprozil</t>
-        </is>
-      </c>
-      <c r="E32" s="30" t="inlineStr">
-        <is>
-          <t>500 mg/1</t>
-        </is>
-      </c>
-      <c r="F32" s="30" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED</t>
-        </is>
-      </c>
-      <c r="G32" s="30" t="inlineStr">
-        <is>
-          <t>UFZTB22004A</t>
-        </is>
-      </c>
-      <c r="H32" s="30" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I32" s="30" t="inlineStr">
-        <is>
-          <t>50 CT</t>
-        </is>
-      </c>
-      <c r="J32" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B32" s="28" t="n"/>
+      <c r="C32" s="29" t="n"/>
+      <c r="D32" s="29" t="n"/>
+      <c r="E32" s="30" t="n"/>
+      <c r="F32" s="30" t="n"/>
+      <c r="G32" s="30" t="n"/>
+      <c r="H32" s="30" t="n"/>
+      <c r="I32" s="30" t="n"/>
+      <c r="J32" s="30" t="n"/>
       <c r="K32" s="30" t="n"/>
-      <c r="L32" s="30" t="n">
-        <v>9</v>
-      </c>
-      <c r="M32" s="30" t="n">
-        <v>9</v>
-      </c>
+      <c r="L32" s="30" t="n"/>
+      <c r="M32" s="30" t="n"/>
       <c r="N32" s="63" t="n"/>
       <c r="O32" s="84" t="n"/>
     </row>
     <row r="33" ht="20" customHeight="1" s="76">
       <c r="A33" s="36" t="n"/>
-      <c r="B33" s="31" t="inlineStr">
-        <is>
-          <t>4580288726</t>
-        </is>
-      </c>
-      <c r="C33" s="32" t="inlineStr">
-        <is>
-          <t>Padagis Israel Pharmaceuticals Ltd</t>
-        </is>
-      </c>
-      <c r="D33" s="32" t="inlineStr">
-        <is>
-          <t>fluocinolone acetonide</t>
-        </is>
-      </c>
-      <c r="E33" s="33" t="inlineStr">
-        <is>
-          <t>.01 mg/100mL</t>
-        </is>
-      </c>
-      <c r="F33" s="33" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="G33" s="33" t="inlineStr">
-        <is>
-          <t>164145</t>
-        </is>
-      </c>
-      <c r="H33" s="33" t="inlineStr">
-        <is>
-          <t>10/23/31</t>
-        </is>
-      </c>
-      <c r="I33" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J33" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="32" t="n"/>
+      <c r="D33" s="32" t="n"/>
+      <c r="E33" s="33" t="n"/>
+      <c r="F33" s="33" t="n"/>
+      <c r="G33" s="33" t="n"/>
+      <c r="H33" s="33" t="n"/>
+      <c r="I33" s="33" t="n"/>
+      <c r="J33" s="33" t="n"/>
       <c r="K33" s="33" t="n"/>
-      <c r="L33" s="33" t="n">
-        <v>9</v>
-      </c>
-      <c r="M33" s="33" t="n">
-        <v>9</v>
-      </c>
+      <c r="L33" s="33" t="n"/>
+      <c r="M33" s="33" t="n"/>
       <c r="N33" s="64" t="n"/>
       <c r="O33" s="84" t="n"/>
     </row>
     <row r="34" ht="20" customHeight="1" s="76">
       <c r="A34" s="36" t="n"/>
-      <c r="B34" s="28" t="inlineStr">
-        <is>
-          <t>6846222517</t>
-        </is>
-      </c>
-      <c r="C34" s="29" t="inlineStr">
-        <is>
-          <t>Glenmark Pharmaceuticals Inc., USA</t>
-        </is>
-      </c>
-      <c r="D34" s="29" t="inlineStr">
-        <is>
-          <t>Mometasone Furoate</t>
-        </is>
-      </c>
-      <c r="E34" s="30" t="inlineStr">
-        <is>
-          <t>1 mg/g</t>
-        </is>
-      </c>
-      <c r="F34" s="30" t="inlineStr">
-        <is>
-          <t>OINTMENT</t>
-        </is>
-      </c>
-      <c r="G34" s="30" t="inlineStr">
-        <is>
-          <t>05220247</t>
-        </is>
-      </c>
-      <c r="H34" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I34" s="30" t="inlineStr">
-        <is>
-          <t>15 CT</t>
-        </is>
-      </c>
-      <c r="J34" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="29" t="n"/>
+      <c r="D34" s="29" t="n"/>
+      <c r="E34" s="30" t="n"/>
+      <c r="F34" s="30" t="n"/>
+      <c r="G34" s="30" t="n"/>
+      <c r="H34" s="30" t="n"/>
+      <c r="I34" s="30" t="n"/>
+      <c r="J34" s="30" t="n"/>
       <c r="K34" s="30" t="n"/>
-      <c r="L34" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="L34" s="30" t="n"/>
+      <c r="M34" s="30" t="n"/>
       <c r="N34" s="65" t="n"/>
       <c r="O34" s="84" t="n"/>
     </row>
     <row r="35" ht="20" customHeight="1" s="76">
       <c r="A35" s="36" t="n"/>
-      <c r="B35" s="31" t="inlineStr">
-        <is>
-          <t>5908881903</t>
-        </is>
-      </c>
-      <c r="C35" s="32" t="inlineStr">
-        <is>
-          <t>PureTek Corporation</t>
-        </is>
-      </c>
-      <c r="D35" s="32" t="inlineStr">
-        <is>
-          <t>Lidocaine HCl - Hydrocortisone Acetate</t>
-        </is>
-      </c>
-      <c r="E35" s="33" t="inlineStr">
-        <is>
-          <t>5 mg/g</t>
-        </is>
-      </c>
-      <c r="F35" s="33" t="inlineStr">
-        <is>
-          <t>CREAM</t>
-        </is>
-      </c>
-      <c r="G35" s="33" t="inlineStr">
-        <is>
-          <t>21C1158</t>
-        </is>
-      </c>
-      <c r="H35" s="33" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I35" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J35" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B35" s="31" t="n"/>
+      <c r="C35" s="32" t="n"/>
+      <c r="D35" s="32" t="n"/>
+      <c r="E35" s="33" t="n"/>
+      <c r="F35" s="33" t="n"/>
+      <c r="G35" s="33" t="n"/>
+      <c r="H35" s="33" t="n"/>
+      <c r="I35" s="33" t="n"/>
+      <c r="J35" s="33" t="n"/>
       <c r="K35" s="33" t="n"/>
-      <c r="L35" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L35" s="33" t="n"/>
+      <c r="M35" s="33" t="n"/>
       <c r="N35" s="66" t="n"/>
       <c r="O35" s="84" t="n"/>
     </row>
     <row r="36" ht="20" customHeight="1" s="76">
       <c r="A36" s="60" t="n"/>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>4280652901</t>
-        </is>
-      </c>
-      <c r="C36" s="29" t="inlineStr">
-        <is>
-          <t>Epic Pharma, LLC</t>
-        </is>
-      </c>
-      <c r="D36" s="29" t="inlineStr">
-        <is>
-          <t>Doxepin Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E36" s="30" t="inlineStr">
-        <is>
-          <t>10 mg/1</t>
-        </is>
-      </c>
-      <c r="F36" s="30" t="inlineStr">
-        <is>
-          <t>CAPSULE</t>
-        </is>
-      </c>
-      <c r="G36" s="30" t="inlineStr">
-        <is>
-          <t>EP210321</t>
-        </is>
-      </c>
-      <c r="H36" s="30" t="inlineStr">
-        <is>
-          <t>05/23/31</t>
-        </is>
-      </c>
-      <c r="I36" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J36" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="29" t="n"/>
+      <c r="D36" s="29" t="n"/>
+      <c r="E36" s="30" t="n"/>
+      <c r="F36" s="30" t="n"/>
+      <c r="G36" s="30" t="n"/>
+      <c r="H36" s="30" t="n"/>
+      <c r="I36" s="30" t="n"/>
+      <c r="J36" s="30" t="n"/>
       <c r="K36" s="30" t="n"/>
-      <c r="L36" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="L36" s="30" t="n"/>
+      <c r="M36" s="30" t="n"/>
       <c r="N36" s="67" t="n"/>
       <c r="O36" s="84" t="n"/>
     </row>
     <row r="37" ht="20" customHeight="1" s="76">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="31" t="inlineStr">
-        <is>
-          <t>1671412101</t>
-        </is>
-      </c>
-      <c r="C37" s="32" t="inlineStr">
-        <is>
-          <t>NorthStar Rx LLC</t>
-        </is>
-      </c>
-      <c r="D37" s="32" t="inlineStr">
-        <is>
-          <t>Pilocarpine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E37" s="33" t="inlineStr">
-        <is>
-          <t>5 mg/1</t>
-        </is>
-      </c>
-      <c r="F37" s="33" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED</t>
-        </is>
-      </c>
-      <c r="G37" s="33" t="inlineStr">
-        <is>
-          <t>PC0520001-A</t>
-        </is>
-      </c>
-      <c r="H37" s="33" t="inlineStr">
-        <is>
-          <t>08/22/31</t>
-        </is>
-      </c>
-      <c r="I37" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J37" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B37" s="31" t="n"/>
+      <c r="C37" s="32" t="n"/>
+      <c r="D37" s="32" t="n"/>
+      <c r="E37" s="33" t="n"/>
+      <c r="F37" s="33" t="n"/>
+      <c r="G37" s="33" t="n"/>
+      <c r="H37" s="33" t="n"/>
+      <c r="I37" s="33" t="n"/>
+      <c r="J37" s="33" t="n"/>
       <c r="K37" s="33" t="n"/>
-      <c r="L37" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L37" s="33" t="n"/>
+      <c r="M37" s="33" t="n"/>
       <c r="N37" s="68" t="n"/>
       <c r="O37" s="84" t="n"/>
     </row>
     <row r="38" ht="20" customHeight="1" s="76">
       <c r="A38" s="84" t="n"/>
-      <c r="B38" s="28" t="inlineStr">
-        <is>
-          <t>3172283330</t>
-        </is>
-      </c>
-      <c r="C38" s="29" t="inlineStr">
-        <is>
-          <t>Camber Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="D38" s="29" t="inlineStr">
-        <is>
-          <t>Entecavir</t>
-        </is>
-      </c>
-      <c r="E38" s="30" t="inlineStr">
-        <is>
-          <t>.5 mg/1</t>
-        </is>
-      </c>
-      <c r="F38" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G38" s="30" t="inlineStr">
-        <is>
-          <t>ENT22022C</t>
-        </is>
-      </c>
-      <c r="H38" s="30" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I38" s="30" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J38" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B38" s="28" t="n"/>
+      <c r="C38" s="29" t="n"/>
+      <c r="D38" s="29" t="n"/>
+      <c r="E38" s="30" t="n"/>
+      <c r="F38" s="30" t="n"/>
+      <c r="G38" s="30" t="n"/>
+      <c r="H38" s="30" t="n"/>
+      <c r="I38" s="30" t="n"/>
+      <c r="J38" s="30" t="n"/>
       <c r="K38" s="30" t="n"/>
-      <c r="L38" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="L38" s="30" t="n"/>
+      <c r="M38" s="30" t="n"/>
       <c r="N38" s="69" t="n"/>
       <c r="O38" s="84" t="n"/>
     </row>
     <row r="39" ht="20" customHeight="1" s="76">
       <c r="A39" s="84" t="n"/>
-      <c r="B39" s="31" t="inlineStr">
-        <is>
-          <t>4948368803</t>
-        </is>
-      </c>
-      <c r="C39" s="32" t="inlineStr">
-        <is>
-          <t>TIME CAP LABORATORIES, INC</t>
-        </is>
-      </c>
-      <c r="D39" s="32" t="inlineStr">
-        <is>
-          <t>Paricalcitol</t>
-        </is>
-      </c>
-      <c r="E39" s="33" t="inlineStr">
-        <is>
-          <t>2 ug/1</t>
-        </is>
-      </c>
-      <c r="F39" s="33" t="inlineStr">
-        <is>
-          <t>CAPSULE, LIQUID FILLED</t>
-        </is>
-      </c>
-      <c r="G39" s="33" t="inlineStr">
-        <is>
-          <t>320034</t>
-        </is>
-      </c>
-      <c r="H39" s="33" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I39" s="33" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J39" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B39" s="31" t="n"/>
+      <c r="C39" s="32" t="n"/>
+      <c r="D39" s="32" t="n"/>
+      <c r="E39" s="33" t="n"/>
+      <c r="F39" s="33" t="n"/>
+      <c r="G39" s="33" t="n"/>
+      <c r="H39" s="33" t="n"/>
+      <c r="I39" s="33" t="n"/>
+      <c r="J39" s="33" t="n"/>
       <c r="K39" s="33" t="n"/>
-      <c r="L39" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L39" s="33" t="n"/>
+      <c r="M39" s="33" t="n"/>
       <c r="N39" s="69" t="n"/>
       <c r="O39" s="84" t="n"/>
     </row>
     <row r="40" ht="20" customHeight="1" s="76">
       <c r="A40" s="84" t="n"/>
-      <c r="B40" s="28" t="inlineStr">
-        <is>
-          <t>4988460511</t>
-        </is>
-      </c>
-      <c r="C40" s="29" t="inlineStr">
-        <is>
-          <t>Par Pharmaceutical, Inc.</t>
-        </is>
-      </c>
-      <c r="D40" s="29" t="inlineStr">
-        <is>
-          <t>Lamotrigine Extended Release</t>
-        </is>
-      </c>
-      <c r="E40" s="30" t="inlineStr">
-        <is>
-          <t>300 mg/1</t>
-        </is>
-      </c>
-      <c r="F40" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G40" s="30" t="inlineStr">
-        <is>
-          <t>0000034745</t>
-        </is>
-      </c>
-      <c r="H40" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I40" s="30" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J40" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B40" s="28" t="n"/>
+      <c r="C40" s="29" t="n"/>
+      <c r="D40" s="29" t="n"/>
+      <c r="E40" s="30" t="n"/>
+      <c r="F40" s="30" t="n"/>
+      <c r="G40" s="30" t="n"/>
+      <c r="H40" s="30" t="n"/>
+      <c r="I40" s="30" t="n"/>
+      <c r="J40" s="30" t="n"/>
       <c r="K40" s="30" t="n"/>
-      <c r="L40" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M40" s="30" t="n">
-        <v>2</v>
-      </c>
+      <c r="L40" s="30" t="n"/>
+      <c r="M40" s="30" t="n"/>
       <c r="N40" s="69" t="n"/>
       <c r="O40" s="84" t="n"/>
     </row>
     <row r="41" ht="20" customHeight="1" s="76">
       <c r="A41" s="84" t="n"/>
-      <c r="B41" s="31" t="inlineStr">
-        <is>
-          <t>6818075601</t>
-        </is>
-      </c>
-      <c r="C41" s="32" t="inlineStr">
-        <is>
-          <t>Lupin Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="D41" s="32" t="inlineStr">
-        <is>
-          <t>Amlodipine Besylate and Benazepril Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E41" s="33" t="inlineStr">
-        <is>
-          <t>5 mg/1</t>
-        </is>
-      </c>
-      <c r="F41" s="33" t="inlineStr">
-        <is>
-          <t>CAPSULE</t>
-        </is>
-      </c>
-      <c r="G41" s="33" t="inlineStr">
-        <is>
-          <t>H200428</t>
-        </is>
-      </c>
-      <c r="H41" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I41" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J41" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B41" s="31" t="n"/>
+      <c r="C41" s="32" t="n"/>
+      <c r="D41" s="32" t="n"/>
+      <c r="E41" s="33" t="n"/>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="33" t="n"/>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="n"/>
       <c r="K41" s="33" t="n"/>
-      <c r="L41" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" s="33" t="n">
-        <v>2</v>
-      </c>
+      <c r="L41" s="33" t="n"/>
+      <c r="M41" s="33" t="n"/>
       <c r="N41" s="69" t="n"/>
       <c r="O41" s="84" t="n"/>
     </row>
     <row r="42" ht="20" customHeight="1" s="76">
       <c r="A42" s="84" t="n"/>
-      <c r="B42" s="28" t="inlineStr">
-        <is>
-          <t>7075681430</t>
-        </is>
-      </c>
-      <c r="C42" s="29" t="inlineStr">
-        <is>
-          <t>Lifestar Pharma LLC</t>
-        </is>
-      </c>
-      <c r="D42" s="29" t="inlineStr">
-        <is>
-          <t>Olmesartan Medoxomil and Hydrochlorothiazide</t>
-        </is>
-      </c>
-      <c r="E42" s="30" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="F42" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G42" s="30" t="inlineStr">
-        <is>
-          <t>U21T0163A</t>
-        </is>
-      </c>
-      <c r="H42" s="30" t="inlineStr">
-        <is>
-          <t>09/23/30</t>
-        </is>
-      </c>
-      <c r="I42" s="30" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J42" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B42" s="28" t="n"/>
+      <c r="C42" s="29" t="n"/>
+      <c r="D42" s="29" t="n"/>
+      <c r="E42" s="30" t="n"/>
+      <c r="F42" s="30" t="n"/>
+      <c r="G42" s="30" t="n"/>
+      <c r="H42" s="30" t="n"/>
+      <c r="I42" s="30" t="n"/>
+      <c r="J42" s="30" t="n"/>
       <c r="K42" s="30" t="n"/>
-      <c r="L42" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" s="30" t="n">
-        <v>2</v>
-      </c>
+      <c r="L42" s="30" t="n"/>
+      <c r="M42" s="30" t="n"/>
       <c r="N42" s="69" t="n"/>
       <c r="O42" s="84" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1" s="76">
       <c r="A43" s="84" t="n"/>
-      <c r="B43" s="31" t="inlineStr">
-        <is>
-          <t>4280652901</t>
-        </is>
-      </c>
-      <c r="C43" s="32" t="inlineStr">
-        <is>
-          <t>Epic Pharma, LLC</t>
-        </is>
-      </c>
-      <c r="D43" s="32" t="inlineStr">
-        <is>
-          <t>Doxepin Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E43" s="33" t="inlineStr">
-        <is>
-          <t>10 mg/1</t>
-        </is>
-      </c>
-      <c r="F43" s="33" t="inlineStr">
-        <is>
-          <t>CAPSULE</t>
-        </is>
-      </c>
-      <c r="G43" s="33" t="inlineStr">
-        <is>
-          <t>EP210321</t>
-        </is>
-      </c>
-      <c r="H43" s="33" t="inlineStr">
-        <is>
-          <t>05/23/31</t>
-        </is>
-      </c>
-      <c r="I43" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J43" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B43" s="31" t="n"/>
+      <c r="C43" s="32" t="n"/>
+      <c r="D43" s="32" t="n"/>
+      <c r="E43" s="33" t="n"/>
+      <c r="F43" s="33" t="n"/>
+      <c r="G43" s="33" t="n"/>
+      <c r="H43" s="33" t="n"/>
+      <c r="I43" s="33" t="n"/>
+      <c r="J43" s="33" t="n"/>
       <c r="K43" s="33" t="n"/>
-      <c r="L43" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" s="33" t="n">
-        <v>2</v>
-      </c>
+      <c r="L43" s="33" t="n"/>
+      <c r="M43" s="33" t="n"/>
       <c r="N43" s="69" t="n"/>
       <c r="O43" s="84" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1" s="76">
       <c r="A44" s="84" t="n"/>
-      <c r="B44" s="28" t="inlineStr">
-        <is>
-          <t>6818044001</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="inlineStr">
-        <is>
-          <t>Lupin Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="D44" s="29" t="inlineStr">
-        <is>
-          <t>cephalexin</t>
-        </is>
-      </c>
-      <c r="E44" s="30" t="inlineStr">
-        <is>
-          <t>125 mg/5mL</t>
-        </is>
-      </c>
-      <c r="F44" s="30" t="inlineStr">
-        <is>
-          <t>FOR SUSPENSION</t>
-        </is>
-      </c>
-      <c r="G44" s="30" t="inlineStr">
-        <is>
-          <t>F100722</t>
-        </is>
-      </c>
-      <c r="H44" s="30" t="inlineStr">
-        <is>
-          <t>08/23/31</t>
-        </is>
-      </c>
-      <c r="I44" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J44" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B44" s="28" t="n"/>
+      <c r="C44" s="29" t="n"/>
+      <c r="D44" s="29" t="n"/>
+      <c r="E44" s="30" t="n"/>
+      <c r="F44" s="30" t="n"/>
+      <c r="G44" s="30" t="n"/>
+      <c r="H44" s="30" t="n"/>
+      <c r="I44" s="30" t="n"/>
+      <c r="J44" s="30" t="n"/>
       <c r="K44" s="30" t="n"/>
-      <c r="L44" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M44" s="30" t="n">
-        <v>2</v>
-      </c>
+      <c r="L44" s="30" t="n"/>
+      <c r="M44" s="30" t="n"/>
       <c r="N44" s="69" t="n"/>
       <c r="O44" s="84" t="n"/>
     </row>
     <row r="45" ht="20" customHeight="1" s="76">
       <c r="A45" s="84" t="n"/>
-      <c r="B45" s="31" t="inlineStr">
-        <is>
-          <t>2724116201</t>
-        </is>
-      </c>
-      <c r="C45" s="32" t="inlineStr">
-        <is>
-          <t>Ajanta Pharma USA Inc.</t>
-        </is>
-      </c>
-      <c r="D45" s="32" t="inlineStr">
-        <is>
-          <t>Captopril</t>
-        </is>
-      </c>
-      <c r="E45" s="33" t="inlineStr">
-        <is>
-          <t>50 mg/1</t>
-        </is>
-      </c>
-      <c r="F45" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G45" s="33" t="inlineStr">
-        <is>
-          <t>PA09311</t>
-        </is>
-      </c>
-      <c r="H45" s="33" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="I45" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J45" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B45" s="31" t="n"/>
+      <c r="C45" s="32" t="n"/>
+      <c r="D45" s="32" t="n"/>
+      <c r="E45" s="33" t="n"/>
+      <c r="F45" s="33" t="n"/>
+      <c r="G45" s="33" t="n"/>
+      <c r="H45" s="33" t="n"/>
+      <c r="I45" s="33" t="n"/>
+      <c r="J45" s="33" t="n"/>
       <c r="K45" s="33" t="n"/>
-      <c r="L45" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="M45" s="33" t="n">
-        <v>3</v>
-      </c>
+      <c r="L45" s="33" t="n"/>
+      <c r="M45" s="33" t="n"/>
       <c r="N45" s="69" t="n"/>
       <c r="O45" s="84" t="n"/>
     </row>
     <row r="46" ht="20" customHeight="1" s="76">
       <c r="A46" s="84" t="n"/>
-      <c r="B46" s="28" t="inlineStr">
-        <is>
-          <t>7001008501</t>
-        </is>
-      </c>
-      <c r="C46" s="29" t="inlineStr">
-        <is>
-          <t>Granules Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="D46" s="29" t="inlineStr">
-        <is>
-          <t>Prazosin Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E46" s="30" t="inlineStr">
-        <is>
-          <t>2 mg/1</t>
-        </is>
-      </c>
-      <c r="F46" s="30" t="inlineStr">
-        <is>
-          <t>CAPSULE</t>
-        </is>
-      </c>
-      <c r="G46" s="30" t="inlineStr">
-        <is>
-          <t>GPV210665A</t>
-        </is>
-      </c>
-      <c r="H46" s="30" t="inlineStr">
-        <is>
-          <t>07/23/31</t>
-        </is>
-      </c>
-      <c r="I46" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J46" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B46" s="28" t="n"/>
+      <c r="C46" s="29" t="n"/>
+      <c r="D46" s="29" t="n"/>
+      <c r="E46" s="30" t="n"/>
+      <c r="F46" s="30" t="n"/>
+      <c r="G46" s="30" t="n"/>
+      <c r="H46" s="30" t="n"/>
+      <c r="I46" s="30" t="n"/>
+      <c r="J46" s="30" t="n"/>
       <c r="K46" s="30" t="n"/>
-      <c r="L46" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M46" s="30" t="n">
-        <v>3</v>
-      </c>
+      <c r="L46" s="30" t="n"/>
+      <c r="M46" s="30" t="n"/>
       <c r="N46" s="69" t="n"/>
       <c r="O46" s="84" t="n"/>
     </row>
     <row r="47" ht="20" customHeight="1" s="76">
       <c r="A47" s="84" t="n"/>
-      <c r="B47" s="31" t="inlineStr">
-        <is>
-          <t>5186264330</t>
-        </is>
-      </c>
-      <c r="C47" s="32" t="inlineStr">
-        <is>
-          <t>Mayne Pharma Commercial LLC</t>
-        </is>
-      </c>
-      <c r="D47" s="32" t="inlineStr">
-        <is>
-          <t>Tamoxifen Citrate</t>
-        </is>
-      </c>
-      <c r="E47" s="33" t="inlineStr">
-        <is>
-          <t>20 mg/1</t>
-        </is>
-      </c>
-      <c r="F47" s="33" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED</t>
-        </is>
-      </c>
-      <c r="G47" s="33" t="inlineStr">
-        <is>
-          <t>FG13511</t>
-        </is>
-      </c>
-      <c r="H47" s="33" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I47" s="33" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J47" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B47" s="31" t="n"/>
+      <c r="C47" s="32" t="n"/>
+      <c r="D47" s="32" t="n"/>
+      <c r="E47" s="33" t="n"/>
+      <c r="F47" s="33" t="n"/>
+      <c r="G47" s="33" t="n"/>
+      <c r="H47" s="33" t="n"/>
+      <c r="I47" s="33" t="n"/>
+      <c r="J47" s="33" t="n"/>
       <c r="K47" s="33" t="n"/>
-      <c r="L47" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="M47" s="33" t="n">
-        <v>3</v>
-      </c>
+      <c r="L47" s="33" t="n"/>
+      <c r="M47" s="33" t="n"/>
       <c r="N47" s="69" t="n"/>
       <c r="O47" s="84" t="n"/>
     </row>
     <row r="48" ht="20" customHeight="1" s="76">
       <c r="A48" s="84" t="n"/>
-      <c r="B48" s="28" t="inlineStr">
-        <is>
-          <t>5374654501</t>
-        </is>
-      </c>
-      <c r="C48" s="29" t="inlineStr">
-        <is>
-          <t>Amneal Pharmaceuticals of New York LLC</t>
-        </is>
-      </c>
-      <c r="D48" s="29" t="inlineStr">
-        <is>
-          <t>Primidone</t>
-        </is>
-      </c>
-      <c r="E48" s="30" t="inlineStr">
-        <is>
-          <t>250 mg/1</t>
-        </is>
-      </c>
-      <c r="F48" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G48" s="30" t="inlineStr">
-        <is>
-          <t>AM210274</t>
-        </is>
-      </c>
-      <c r="H48" s="30" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I48" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J48" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B48" s="28" t="n"/>
+      <c r="C48" s="29" t="n"/>
+      <c r="D48" s="29" t="n"/>
+      <c r="E48" s="30" t="n"/>
+      <c r="F48" s="30" t="n"/>
+      <c r="G48" s="30" t="n"/>
+      <c r="H48" s="30" t="n"/>
+      <c r="I48" s="30" t="n"/>
+      <c r="J48" s="30" t="n"/>
       <c r="K48" s="30" t="n"/>
-      <c r="L48" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M48" s="30" t="n">
-        <v>3</v>
-      </c>
+      <c r="L48" s="30" t="n"/>
+      <c r="M48" s="30" t="n"/>
       <c r="N48" s="69" t="n"/>
       <c r="O48" s="84" t="n"/>
     </row>
     <row r="49" ht="20" customHeight="1" s="76">
       <c r="A49" s="84" t="n"/>
-      <c r="B49" s="31" t="inlineStr">
-        <is>
-          <t>4420625105</t>
-        </is>
-      </c>
-      <c r="C49" s="32" t="inlineStr">
-        <is>
-          <t>CSL Behring AG</t>
-        </is>
-      </c>
-      <c r="D49" s="32" t="inlineStr">
-        <is>
-          <t>AlbuRx</t>
-        </is>
-      </c>
-      <c r="E49" s="33" t="inlineStr">
-        <is>
-          <t>12.5 g/50mL</t>
-        </is>
-      </c>
-      <c r="F49" s="33" t="inlineStr">
-        <is>
-          <t>SOLUTION</t>
-        </is>
-      </c>
-      <c r="G49" s="33" t="inlineStr">
-        <is>
-          <t>P100300269</t>
-        </is>
-      </c>
-      <c r="H49" s="33" t="inlineStr">
-        <is>
-          <t>02/24/10</t>
-        </is>
-      </c>
-      <c r="I49" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J49" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B49" s="31" t="n"/>
+      <c r="C49" s="32" t="n"/>
+      <c r="D49" s="32" t="n"/>
+      <c r="E49" s="33" t="n"/>
+      <c r="F49" s="33" t="n"/>
+      <c r="G49" s="33" t="n"/>
+      <c r="H49" s="33" t="n"/>
+      <c r="I49" s="33" t="n"/>
+      <c r="J49" s="33" t="n"/>
       <c r="K49" s="33" t="n"/>
-      <c r="L49" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="M49" s="33" t="n">
-        <v>3</v>
-      </c>
+      <c r="L49" s="33" t="n"/>
+      <c r="M49" s="33" t="n"/>
       <c r="N49" s="69" t="n"/>
       <c r="O49" s="84" t="n"/>
     </row>
     <row r="50" ht="20" customHeight="1" s="76">
       <c r="A50" s="84" t="n"/>
-      <c r="B50" s="28" t="inlineStr">
-        <is>
-          <t>2315500401</t>
-        </is>
-      </c>
-      <c r="C50" s="29" t="inlineStr">
-        <is>
-          <t>Heritage Pharmaceuticals Inc. d/b/a Avet Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="D50" s="29" t="inlineStr">
-        <is>
-          <t>HYDRALAZINE HYDROCHLORIDE</t>
-        </is>
-      </c>
-      <c r="E50" s="30" t="inlineStr">
-        <is>
-          <t>100 mg/1</t>
-        </is>
-      </c>
-      <c r="F50" s="30" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED</t>
-        </is>
-      </c>
-      <c r="G50" s="30" t="inlineStr">
-        <is>
-          <t>220091A</t>
-        </is>
-      </c>
-      <c r="H50" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I50" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J50" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B50" s="28" t="n"/>
+      <c r="C50" s="29" t="n"/>
+      <c r="D50" s="29" t="n"/>
+      <c r="E50" s="30" t="n"/>
+      <c r="F50" s="30" t="n"/>
+      <c r="G50" s="30" t="n"/>
+      <c r="H50" s="30" t="n"/>
+      <c r="I50" s="30" t="n"/>
+      <c r="J50" s="30" t="n"/>
       <c r="K50" s="30" t="n"/>
-      <c r="L50" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M50" s="30" t="n">
-        <v>4</v>
-      </c>
+      <c r="L50" s="30" t="n"/>
+      <c r="M50" s="30" t="n"/>
       <c r="N50" s="69" t="n"/>
       <c r="O50" s="84" t="n"/>
     </row>
     <row r="51" ht="20" customFormat="1" customHeight="1" s="106">
       <c r="A51" s="61" t="n"/>
-      <c r="B51" s="31" t="inlineStr">
-        <is>
-          <t>5483850615</t>
-        </is>
-      </c>
-      <c r="C51" s="32" t="inlineStr">
-        <is>
-          <t>Lannett Company, Inc.</t>
-        </is>
-      </c>
-      <c r="D51" s="32" t="inlineStr">
-        <is>
-          <t>Hyosyne</t>
-        </is>
-      </c>
-      <c r="E51" s="33" t="inlineStr">
-        <is>
-          <t>.125 mg/mL</t>
-        </is>
-      </c>
-      <c r="F51" s="33" t="inlineStr">
-        <is>
-          <t>SOLUTION/ DROPS</t>
-        </is>
-      </c>
-      <c r="G51" s="33" t="inlineStr">
-        <is>
-          <t>3320A</t>
-        </is>
-      </c>
-      <c r="H51" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I51" s="33" t="inlineStr">
-        <is>
-          <t>15 CT</t>
-        </is>
-      </c>
-      <c r="J51" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B51" s="31" t="n"/>
+      <c r="C51" s="32" t="n"/>
+      <c r="D51" s="32" t="n"/>
+      <c r="E51" s="33" t="n"/>
+      <c r="F51" s="33" t="n"/>
+      <c r="G51" s="33" t="n"/>
+      <c r="H51" s="33" t="n"/>
+      <c r="I51" s="33" t="n"/>
+      <c r="J51" s="33" t="n"/>
       <c r="K51" s="33" t="n"/>
-      <c r="L51" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="M51" s="33" t="n">
-        <v>4</v>
-      </c>
+      <c r="L51" s="33" t="n"/>
+      <c r="M51" s="33" t="n"/>
       <c r="N51" s="70" t="n"/>
       <c r="O51" s="61" t="n"/>
     </row>
     <row r="52" ht="20" customHeight="1" s="76">
       <c r="A52" s="84" t="n"/>
-      <c r="B52" s="28" t="inlineStr">
-        <is>
-          <t>7095420210</t>
-        </is>
-      </c>
-      <c r="C52" s="29" t="inlineStr">
-        <is>
-          <t>Novitium Pharma LLC</t>
-        </is>
-      </c>
-      <c r="D52" s="29" t="inlineStr">
-        <is>
-          <t>Digoxin</t>
-        </is>
-      </c>
-      <c r="E52" s="30" t="inlineStr">
-        <is>
-          <t>.25 mg/1</t>
-        </is>
-      </c>
-      <c r="F52" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G52" s="30" t="inlineStr">
-        <is>
-          <t>S22032A</t>
-        </is>
-      </c>
-      <c r="H52" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I52" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J52" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B52" s="28" t="n"/>
+      <c r="C52" s="29" t="n"/>
+      <c r="D52" s="29" t="n"/>
+      <c r="E52" s="30" t="n"/>
+      <c r="F52" s="30" t="n"/>
+      <c r="G52" s="30" t="n"/>
+      <c r="H52" s="30" t="n"/>
+      <c r="I52" s="30" t="n"/>
+      <c r="J52" s="30" t="n"/>
       <c r="K52" s="30" t="n"/>
-      <c r="L52" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M52" s="30" t="n">
-        <v>4</v>
-      </c>
+      <c r="L52" s="30" t="n"/>
+      <c r="M52" s="30" t="n"/>
       <c r="N52" s="69" t="n"/>
       <c r="O52" s="84" t="n"/>
     </row>
     <row r="53" ht="20" customHeight="1" s="76">
       <c r="A53" s="84" t="n"/>
-      <c r="B53" s="31" t="inlineStr">
-        <is>
-          <t>2724116201</t>
-        </is>
-      </c>
-      <c r="C53" s="32" t="inlineStr">
-        <is>
-          <t>Ajanta Pharma USA Inc.</t>
-        </is>
-      </c>
-      <c r="D53" s="32" t="inlineStr">
-        <is>
-          <t>Captopril</t>
-        </is>
-      </c>
-      <c r="E53" s="33" t="inlineStr">
-        <is>
-          <t>50 mg/1</t>
-        </is>
-      </c>
-      <c r="F53" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G53" s="33" t="inlineStr">
-        <is>
-          <t>PA09311</t>
-        </is>
-      </c>
-      <c r="H53" s="33" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="I53" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J53" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B53" s="31" t="n"/>
+      <c r="C53" s="32" t="n"/>
+      <c r="D53" s="32" t="n"/>
+      <c r="E53" s="33" t="n"/>
+      <c r="F53" s="33" t="n"/>
+      <c r="G53" s="33" t="n"/>
+      <c r="H53" s="33" t="n"/>
+      <c r="I53" s="33" t="n"/>
+      <c r="J53" s="33" t="n"/>
       <c r="K53" s="33" t="n"/>
-      <c r="L53" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="M53" s="33" t="n">
-        <v>4</v>
-      </c>
+      <c r="L53" s="33" t="n"/>
+      <c r="M53" s="33" t="n"/>
       <c r="N53" s="69" t="n"/>
       <c r="O53" s="84" t="n"/>
     </row>
     <row r="54" ht="20" customHeight="1" s="76">
       <c r="A54" s="84" t="n"/>
-      <c r="B54" s="28" t="inlineStr">
-        <is>
-          <t>1366813301</t>
-        </is>
-      </c>
-      <c r="C54" s="29" t="inlineStr">
-        <is>
-          <t>Torrent Pharmaceuticals Limited</t>
-        </is>
-      </c>
-      <c r="D54" s="29" t="inlineStr">
-        <is>
-          <t>Felodipine</t>
-        </is>
-      </c>
-      <c r="E54" s="30" t="inlineStr">
-        <is>
-          <t>5 mg/1</t>
-        </is>
-      </c>
-      <c r="F54" s="30" t="inlineStr">
-        <is>
-          <t>TABLET, EXTENDED RELEASE</t>
-        </is>
-      </c>
-      <c r="G54" s="30" t="inlineStr">
-        <is>
-          <t>BR69J002</t>
-        </is>
-      </c>
-      <c r="H54" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I54" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J54" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B54" s="28" t="n"/>
+      <c r="C54" s="29" t="n"/>
+      <c r="D54" s="29" t="n"/>
+      <c r="E54" s="30" t="n"/>
+      <c r="F54" s="30" t="n"/>
+      <c r="G54" s="30" t="n"/>
+      <c r="H54" s="30" t="n"/>
+      <c r="I54" s="30" t="n"/>
+      <c r="J54" s="30" t="n"/>
       <c r="K54" s="30" t="n"/>
-      <c r="L54" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M54" s="30" t="n">
-        <v>4</v>
-      </c>
+      <c r="L54" s="30" t="n"/>
+      <c r="M54" s="30" t="n"/>
       <c r="N54" s="69" t="n"/>
       <c r="O54" s="84" t="n"/>
     </row>
     <row r="55" ht="20" customHeight="1" s="76">
       <c r="A55" s="62" t="n"/>
-      <c r="B55" s="31" t="inlineStr">
-        <is>
-          <t>4988460511</t>
-        </is>
-      </c>
-      <c r="C55" s="32" t="inlineStr">
-        <is>
-          <t>Par Pharmaceutical, Inc.</t>
-        </is>
-      </c>
-      <c r="D55" s="32" t="inlineStr">
-        <is>
-          <t>Lamotrigine Extended Release</t>
-        </is>
-      </c>
-      <c r="E55" s="33" t="inlineStr">
-        <is>
-          <t>300 mg/1</t>
-        </is>
-      </c>
-      <c r="F55" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G55" s="33" t="inlineStr">
-        <is>
-          <t>0000034745</t>
-        </is>
-      </c>
-      <c r="H55" s="33" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I55" s="33" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J55" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B55" s="31" t="n"/>
+      <c r="C55" s="32" t="n"/>
+      <c r="D55" s="32" t="n"/>
+      <c r="E55" s="33" t="n"/>
+      <c r="F55" s="33" t="n"/>
+      <c r="G55" s="33" t="n"/>
+      <c r="H55" s="33" t="n"/>
+      <c r="I55" s="33" t="n"/>
+      <c r="J55" s="33" t="n"/>
       <c r="K55" s="33" t="n"/>
-      <c r="L55" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="M55" s="33" t="n">
-        <v>4</v>
-      </c>
+      <c r="L55" s="33" t="n"/>
+      <c r="M55" s="33" t="n"/>
       <c r="N55" s="71" t="n"/>
       <c r="O55" s="84" t="n"/>
     </row>
     <row r="56" ht="20" customHeight="1" s="76">
-      <c r="B56" s="28" t="inlineStr">
-        <is>
-          <t>6818031406</t>
-        </is>
-      </c>
-      <c r="C56" s="29" t="inlineStr">
-        <is>
-          <t>Lupin Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="D56" s="29" t="inlineStr">
-        <is>
-          <t>Imipramine Pamoate</t>
-        </is>
-      </c>
-      <c r="E56" s="30" t="inlineStr">
-        <is>
-          <t>75 mg/1</t>
-        </is>
-      </c>
-      <c r="F56" s="30" t="inlineStr">
-        <is>
-          <t>CAPSULE</t>
-        </is>
-      </c>
-      <c r="G56" s="30" t="inlineStr">
-        <is>
-          <t>H100683</t>
-        </is>
-      </c>
-      <c r="H56" s="30" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I56" s="30" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J56" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B56" s="28" t="n"/>
+      <c r="C56" s="29" t="n"/>
+      <c r="D56" s="29" t="n"/>
+      <c r="E56" s="30" t="n"/>
+      <c r="F56" s="30" t="n"/>
+      <c r="G56" s="30" t="n"/>
+      <c r="H56" s="30" t="n"/>
+      <c r="I56" s="30" t="n"/>
+      <c r="J56" s="30" t="n"/>
       <c r="K56" s="30" t="n"/>
-      <c r="L56" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M56" s="30" t="n">
-        <v>5</v>
-      </c>
+      <c r="L56" s="30" t="n"/>
+      <c r="M56" s="30" t="n"/>
       <c r="N56" s="69" t="n"/>
       <c r="O56" s="84" t="n"/>
     </row>
     <row r="57" ht="20" customHeight="1" s="76">
-      <c r="B57" s="31" t="inlineStr">
-        <is>
-          <t>7075681430</t>
-        </is>
-      </c>
-      <c r="C57" s="32" t="inlineStr">
-        <is>
-          <t>Lifestar Pharma LLC</t>
-        </is>
-      </c>
-      <c r="D57" s="32" t="inlineStr">
-        <is>
-          <t>Olmesartan Medoxomil and Hydrochlorothiazide</t>
-        </is>
-      </c>
-      <c r="E57" s="33" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="F57" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G57" s="33" t="inlineStr">
-        <is>
-          <t>U21T0163A</t>
-        </is>
-      </c>
-      <c r="H57" s="33" t="inlineStr">
-        <is>
-          <t>09/23/30</t>
-        </is>
-      </c>
-      <c r="I57" s="33" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J57" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B57" s="31" t="n"/>
+      <c r="C57" s="32" t="n"/>
+      <c r="D57" s="32" t="n"/>
+      <c r="E57" s="33" t="n"/>
+      <c r="F57" s="33" t="n"/>
+      <c r="G57" s="33" t="n"/>
+      <c r="H57" s="33" t="n"/>
+      <c r="I57" s="33" t="n"/>
+      <c r="J57" s="33" t="n"/>
       <c r="K57" s="33" t="n"/>
-      <c r="L57" s="33" t="n">
-        <v>5</v>
-      </c>
-      <c r="M57" s="33" t="n">
-        <v>5</v>
-      </c>
+      <c r="L57" s="33" t="n"/>
+      <c r="M57" s="33" t="n"/>
       <c r="N57" s="69" t="n"/>
       <c r="O57" s="84" t="n"/>
     </row>
     <row r="58" ht="20" customHeight="1" s="76">
-      <c r="B58" s="28" t="inlineStr">
-        <is>
-          <t>6516252210</t>
-        </is>
-      </c>
-      <c r="C58" s="29" t="inlineStr">
-        <is>
-          <t>Amneal Pharmaceuticals LLC</t>
-        </is>
-      </c>
-      <c r="D58" s="29" t="inlineStr">
-        <is>
-          <t>Promethazine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E58" s="30" t="inlineStr">
-        <is>
-          <t>50 mg/1</t>
-        </is>
-      </c>
-      <c r="F58" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G58" s="30" t="inlineStr">
-        <is>
-          <t>BB25922A</t>
-        </is>
-      </c>
-      <c r="H58" s="30" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I58" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J58" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B58" s="28" t="n"/>
+      <c r="C58" s="29" t="n"/>
+      <c r="D58" s="29" t="n"/>
+      <c r="E58" s="30" t="n"/>
+      <c r="F58" s="30" t="n"/>
+      <c r="G58" s="30" t="n"/>
+      <c r="H58" s="30" t="n"/>
+      <c r="I58" s="30" t="n"/>
+      <c r="J58" s="30" t="n"/>
       <c r="K58" s="30" t="n"/>
-      <c r="L58" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M58" s="30" t="n">
-        <v>5</v>
-      </c>
+      <c r="L58" s="30" t="n"/>
+      <c r="M58" s="30" t="n"/>
       <c r="N58" s="69" t="n"/>
       <c r="O58" s="84" t="n"/>
     </row>
     <row r="59" ht="20" customHeight="1" s="76">
-      <c r="B59" s="31" t="inlineStr">
-        <is>
-          <t>1037028011</t>
-        </is>
-      </c>
-      <c r="C59" s="32" t="inlineStr">
-        <is>
-          <t>Par Pharmaceutical, Inc.</t>
-        </is>
-      </c>
-      <c r="D59" s="32" t="inlineStr">
-        <is>
-          <t>Dutasteride and Tamsulosin Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E59" s="33" t="inlineStr">
-        <is>
-          <t>.5 mg/1</t>
-        </is>
-      </c>
-      <c r="F59" s="33" t="inlineStr">
-        <is>
-          <t>CAPSULE</t>
-        </is>
-      </c>
-      <c r="G59" s="33" t="inlineStr">
-        <is>
-          <t>10000067A</t>
-        </is>
-      </c>
-      <c r="H59" s="33" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I59" s="33" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J59" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B59" s="31" t="n"/>
+      <c r="C59" s="32" t="n"/>
+      <c r="D59" s="32" t="n"/>
+      <c r="E59" s="33" t="n"/>
+      <c r="F59" s="33" t="n"/>
+      <c r="G59" s="33" t="n"/>
+      <c r="H59" s="33" t="n"/>
+      <c r="I59" s="33" t="n"/>
+      <c r="J59" s="33" t="n"/>
       <c r="K59" s="33" t="n"/>
-      <c r="L59" s="33" t="n">
-        <v>5</v>
-      </c>
-      <c r="M59" s="33" t="n">
-        <v>5</v>
-      </c>
+      <c r="L59" s="33" t="n"/>
+      <c r="M59" s="33" t="n"/>
       <c r="N59" s="69" t="n"/>
       <c r="O59" s="84" t="n"/>
     </row>
     <row r="60" ht="20" customHeight="1" s="76">
-      <c r="B60" s="28" t="inlineStr">
-        <is>
-          <t>5281781615</t>
-        </is>
-      </c>
-      <c r="C60" s="29" t="inlineStr">
-        <is>
-          <t>TruPharma, LLC</t>
-        </is>
-      </c>
-      <c r="D60" s="29" t="inlineStr">
-        <is>
-          <t>Acetic Acid</t>
-        </is>
-      </c>
-      <c r="E60" s="30" t="inlineStr">
-        <is>
-          <t>20.65 mg/mL</t>
-        </is>
-      </c>
-      <c r="F60" s="30" t="inlineStr">
-        <is>
-          <t>SOLUTION</t>
-        </is>
-      </c>
-      <c r="G60" s="30" t="inlineStr">
-        <is>
-          <t>22047A0</t>
-        </is>
-      </c>
-      <c r="H60" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I60" s="30" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J60" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B60" s="28" t="n"/>
+      <c r="C60" s="29" t="n"/>
+      <c r="D60" s="29" t="n"/>
+      <c r="E60" s="30" t="n"/>
+      <c r="F60" s="30" t="n"/>
+      <c r="G60" s="30" t="n"/>
+      <c r="H60" s="30" t="n"/>
+      <c r="I60" s="30" t="n"/>
+      <c r="J60" s="30" t="n"/>
       <c r="K60" s="30" t="n"/>
-      <c r="L60" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M60" s="30" t="n">
-        <v>5</v>
-      </c>
+      <c r="L60" s="30" t="n"/>
+      <c r="M60" s="30" t="n"/>
       <c r="N60" s="69" t="n"/>
       <c r="O60" s="84" t="n"/>
     </row>
     <row r="61" ht="20" customHeight="1" s="76">
-      <c r="B61" s="31" t="inlineStr">
-        <is>
-          <t>5908881903</t>
-        </is>
-      </c>
-      <c r="C61" s="32" t="inlineStr">
-        <is>
-          <t>PureTek Corporation</t>
-        </is>
-      </c>
-      <c r="D61" s="32" t="inlineStr">
-        <is>
-          <t>Lidocaine HCl - Hydrocortisone Acetate</t>
-        </is>
-      </c>
-      <c r="E61" s="33" t="inlineStr">
-        <is>
-          <t>5 mg/g</t>
-        </is>
-      </c>
-      <c r="F61" s="33" t="inlineStr">
-        <is>
-          <t>CREAM</t>
-        </is>
-      </c>
-      <c r="G61" s="33" t="inlineStr">
-        <is>
-          <t>21C1158</t>
-        </is>
-      </c>
-      <c r="H61" s="33" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I61" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J61" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B61" s="31" t="n"/>
+      <c r="C61" s="32" t="n"/>
+      <c r="D61" s="32" t="n"/>
+      <c r="E61" s="33" t="n"/>
+      <c r="F61" s="33" t="n"/>
+      <c r="G61" s="33" t="n"/>
+      <c r="H61" s="33" t="n"/>
+      <c r="I61" s="33" t="n"/>
+      <c r="J61" s="33" t="n"/>
       <c r="K61" s="33" t="n"/>
-      <c r="L61" s="33" t="n">
-        <v>5</v>
-      </c>
-      <c r="M61" s="33" t="n">
-        <v>5</v>
-      </c>
+      <c r="L61" s="33" t="n"/>
+      <c r="M61" s="33" t="n"/>
       <c r="N61" s="69" t="n"/>
       <c r="O61" s="84" t="n"/>
     </row>
     <row r="62" ht="20" customHeight="1" s="76">
-      <c r="B62" s="28" t="inlineStr">
-        <is>
-          <t>6818031406</t>
-        </is>
-      </c>
-      <c r="C62" s="29" t="inlineStr">
-        <is>
-          <t>Lupin Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="D62" s="29" t="inlineStr">
-        <is>
-          <t>Imipramine Pamoate</t>
-        </is>
-      </c>
-      <c r="E62" s="30" t="inlineStr">
-        <is>
-          <t>75 mg/1</t>
-        </is>
-      </c>
-      <c r="F62" s="30" t="inlineStr">
-        <is>
-          <t>CAPSULE</t>
-        </is>
-      </c>
-      <c r="G62" s="30" t="inlineStr">
-        <is>
-          <t>H100683</t>
-        </is>
-      </c>
-      <c r="H62" s="30" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I62" s="30" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J62" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B62" s="28" t="n"/>
+      <c r="C62" s="29" t="n"/>
+      <c r="D62" s="29" t="n"/>
+      <c r="E62" s="30" t="n"/>
+      <c r="F62" s="30" t="n"/>
+      <c r="G62" s="30" t="n"/>
+      <c r="H62" s="30" t="n"/>
+      <c r="I62" s="30" t="n"/>
+      <c r="J62" s="30" t="n"/>
       <c r="K62" s="30" t="n"/>
-      <c r="L62" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M62" s="30" t="n">
-        <v>5</v>
-      </c>
+      <c r="L62" s="30" t="n"/>
+      <c r="M62" s="30" t="n"/>
       <c r="N62" s="69" t="n"/>
       <c r="O62" s="84" t="n"/>
     </row>
     <row r="63" ht="20" customHeight="1" s="76">
-      <c r="B63" s="31" t="inlineStr">
-        <is>
-          <t>4257116142</t>
-        </is>
-      </c>
-      <c r="C63" s="32" t="inlineStr">
-        <is>
-          <t>Micro Labs Limited</t>
-        </is>
-      </c>
-      <c r="D63" s="32" t="inlineStr">
-        <is>
-          <t>AMOXICILLIN AND CLAVULANATE POTASSIUM</t>
-        </is>
-      </c>
-      <c r="E63" s="33" t="inlineStr">
-        <is>
-          <t>500 mg/1</t>
-        </is>
-      </c>
-      <c r="F63" s="33" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED</t>
-        </is>
-      </c>
-      <c r="G63" s="33" t="inlineStr">
-        <is>
-          <t>ACBUV0115</t>
-        </is>
-      </c>
-      <c r="H63" s="33" t="inlineStr">
-        <is>
-          <t>09/23/30</t>
-        </is>
-      </c>
-      <c r="I63" s="33" t="inlineStr">
-        <is>
-          <t>20 CT</t>
-        </is>
-      </c>
-      <c r="J63" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B63" s="31" t="n"/>
+      <c r="C63" s="32" t="n"/>
+      <c r="D63" s="32" t="n"/>
+      <c r="E63" s="33" t="n"/>
+      <c r="F63" s="33" t="n"/>
+      <c r="G63" s="33" t="n"/>
+      <c r="H63" s="33" t="n"/>
+      <c r="I63" s="33" t="n"/>
+      <c r="J63" s="33" t="n"/>
       <c r="K63" s="33" t="n"/>
-      <c r="L63" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="M63" s="33" t="n">
-        <v>6</v>
-      </c>
+      <c r="L63" s="33" t="n"/>
+      <c r="M63" s="33" t="n"/>
       <c r="N63" s="69" t="n"/>
       <c r="O63" s="84" t="n"/>
     </row>
     <row r="64" ht="20" customHeight="1" s="76">
-      <c r="B64" s="31" t="inlineStr">
-        <is>
-          <t>4733590288</t>
-        </is>
-      </c>
-      <c r="C64" s="32" t="inlineStr">
-        <is>
-          <t>Sun Pharmaceutical Industries, Inc.</t>
-        </is>
-      </c>
-      <c r="D64" s="32" t="inlineStr">
-        <is>
-          <t>Quetiapine fumarate</t>
-        </is>
-      </c>
-      <c r="E64" s="33" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="F64" s="33" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED</t>
-        </is>
-      </c>
-      <c r="G64" s="33" t="inlineStr">
-        <is>
-          <t>DNC0065A</t>
-        </is>
-      </c>
-      <c r="H64" s="33" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="I64" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J64" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B64" s="31" t="n"/>
+      <c r="C64" s="32" t="n"/>
+      <c r="D64" s="32" t="n"/>
+      <c r="E64" s="33" t="n"/>
+      <c r="F64" s="33" t="n"/>
+      <c r="G64" s="33" t="n"/>
+      <c r="H64" s="33" t="n"/>
+      <c r="I64" s="33" t="n"/>
+      <c r="J64" s="33" t="n"/>
       <c r="K64" s="33" t="n"/>
-      <c r="L64" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="M64" s="33" t="n">
-        <v>6</v>
-      </c>
+      <c r="L64" s="33" t="n"/>
+      <c r="M64" s="33" t="n"/>
       <c r="N64" s="69" t="n"/>
       <c r="O64" s="84" t="n"/>
     </row>
     <row r="65" ht="20" customHeight="1" s="76">
-      <c r="B65" s="28" t="inlineStr">
-        <is>
-          <t>4988400901</t>
-        </is>
-      </c>
-      <c r="C65" s="29" t="inlineStr">
-        <is>
-          <t>Par Pharmaceutical, Inc.</t>
-        </is>
-      </c>
-      <c r="D65" s="29" t="inlineStr">
-        <is>
-          <t>Isosorbide Dinitrate</t>
-        </is>
-      </c>
-      <c r="E65" s="30" t="inlineStr">
-        <is>
-          <t>30 mg/1</t>
-        </is>
-      </c>
-      <c r="F65" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G65" s="30" t="inlineStr">
-        <is>
-          <t>13032301</t>
-        </is>
-      </c>
-      <c r="H65" s="30" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="I65" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J65" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B65" s="28" t="n"/>
+      <c r="C65" s="29" t="n"/>
+      <c r="D65" s="29" t="n"/>
+      <c r="E65" s="30" t="n"/>
+      <c r="F65" s="30" t="n"/>
+      <c r="G65" s="30" t="n"/>
+      <c r="H65" s="30" t="n"/>
+      <c r="I65" s="30" t="n"/>
+      <c r="J65" s="30" t="n"/>
       <c r="K65" s="30" t="n"/>
-      <c r="L65" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="M65" s="30" t="n">
-        <v>6</v>
-      </c>
+      <c r="L65" s="30" t="n"/>
+      <c r="M65" s="30" t="n"/>
       <c r="N65" s="69" t="n"/>
       <c r="O65" s="84" t="n"/>
     </row>
     <row r="66" ht="20" customHeight="1" s="76">
-      <c r="B66" s="31" t="inlineStr">
-        <is>
-          <t>2315574703</t>
-        </is>
-      </c>
-      <c r="C66" s="32" t="inlineStr">
-        <is>
-          <t>Avet Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="D66" s="32" t="inlineStr">
-        <is>
-          <t>Rasagiline mesylate</t>
-        </is>
-      </c>
-      <c r="E66" s="33" t="inlineStr">
-        <is>
-          <t>1 mg/1</t>
-        </is>
-      </c>
-      <c r="F66" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G66" s="33" t="inlineStr">
-        <is>
-          <t>RCZ01LC6</t>
-        </is>
-      </c>
-      <c r="H66" s="33" t="inlineStr">
-        <is>
-          <t>11/23/30</t>
-        </is>
-      </c>
-      <c r="I66" s="33" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J66" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B66" s="31" t="n"/>
+      <c r="C66" s="32" t="n"/>
+      <c r="D66" s="32" t="n"/>
+      <c r="E66" s="33" t="n"/>
+      <c r="F66" s="33" t="n"/>
+      <c r="G66" s="33" t="n"/>
+      <c r="H66" s="33" t="n"/>
+      <c r="I66" s="33" t="n"/>
+      <c r="J66" s="33" t="n"/>
       <c r="K66" s="33" t="n"/>
-      <c r="L66" s="33" t="n">
-        <v>6</v>
-      </c>
+      <c r="L66" s="33" t="n"/>
       <c r="M66" s="33" t="n">
-        <v>372</v>
+        <v>6720</v>
       </c>
       <c r="N66" s="69" t="n"/>
       <c r="O66" s="84" t="n"/>
     </row>
     <row r="67" ht="20" customHeight="1" s="76">
-      <c r="B67" s="28" t="inlineStr">
-        <is>
-          <t>7230507530</t>
-        </is>
-      </c>
-      <c r="C67" s="29" t="inlineStr">
-        <is>
-          <t>Provell Pharmaceuticals, LLC</t>
-        </is>
-      </c>
-      <c r="D67" s="29" t="inlineStr">
-        <is>
-          <t>EUTHYROX</t>
-        </is>
-      </c>
-      <c r="E67" s="30" t="inlineStr">
-        <is>
-          <t>75 ug/1</t>
-        </is>
-      </c>
-      <c r="F67" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G67" s="30" t="inlineStr">
-        <is>
-          <t>G00WP920</t>
-        </is>
-      </c>
-      <c r="H67" s="30" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I67" s="30" t="inlineStr">
-        <is>
-          <t>2 CT</t>
-        </is>
-      </c>
-      <c r="J67" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B67" s="28" t="n"/>
+      <c r="C67" s="29" t="n"/>
+      <c r="D67" s="29" t="n"/>
+      <c r="E67" s="30" t="n"/>
+      <c r="F67" s="30" t="n"/>
+      <c r="G67" s="30" t="n"/>
+      <c r="H67" s="30" t="n"/>
+      <c r="I67" s="30" t="n"/>
+      <c r="J67" s="30" t="n"/>
       <c r="K67" s="30" t="n"/>
-      <c r="L67" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="M67" s="30" t="n">
-        <v>6</v>
-      </c>
+      <c r="L67" s="30" t="n"/>
+      <c r="M67" s="30" t="n"/>
       <c r="N67" s="69" t="n"/>
       <c r="O67" s="84" t="n"/>
     </row>
     <row r="68" ht="20" customHeight="1" s="76">
-      <c r="B68" s="31" t="inlineStr">
-        <is>
-          <t>5908881903</t>
-        </is>
-      </c>
-      <c r="C68" s="32" t="inlineStr">
-        <is>
-          <t>PureTek Corporation</t>
-        </is>
-      </c>
-      <c r="D68" s="32" t="inlineStr">
-        <is>
-          <t>Lidocaine HCl - Hydrocortisone Acetate</t>
-        </is>
-      </c>
-      <c r="E68" s="33" t="inlineStr">
-        <is>
-          <t>5 mg/g</t>
-        </is>
-      </c>
-      <c r="F68" s="33" t="inlineStr">
-        <is>
-          <t>CREAM</t>
-        </is>
-      </c>
-      <c r="G68" s="33" t="inlineStr">
-        <is>
-          <t>21C1158</t>
-        </is>
-      </c>
-      <c r="H68" s="33" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I68" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J68" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B68" s="31" t="n"/>
+      <c r="C68" s="32" t="n"/>
+      <c r="D68" s="32" t="n"/>
+      <c r="E68" s="33" t="n"/>
+      <c r="F68" s="33" t="n"/>
+      <c r="G68" s="33" t="n"/>
+      <c r="H68" s="33" t="n"/>
+      <c r="I68" s="33" t="n"/>
+      <c r="J68" s="33" t="n"/>
       <c r="K68" s="33" t="n"/>
-      <c r="L68" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="M68" s="33" t="n">
-        <v>6</v>
-      </c>
+      <c r="L68" s="33" t="n"/>
+      <c r="M68" s="33" t="n"/>
       <c r="N68" s="69" t="n"/>
       <c r="O68" s="84" t="n"/>
     </row>
     <row r="69" ht="20" customHeight="1" s="76">
-      <c r="B69" s="28" t="inlineStr">
-        <is>
-          <t>6476491830</t>
-        </is>
-      </c>
-      <c r="C69" s="29" t="inlineStr">
-        <is>
-          <t>Takeda Pharmaceuticals America, Inc.</t>
-        </is>
-      </c>
-      <c r="D69" s="29" t="inlineStr">
-        <is>
-          <t>ULORIC</t>
-        </is>
-      </c>
-      <c r="E69" s="30" t="inlineStr">
-        <is>
-          <t>40 mg/1</t>
-        </is>
-      </c>
-      <c r="F69" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G69" s="30" t="inlineStr">
-        <is>
-          <t>A28057</t>
-        </is>
-      </c>
-      <c r="H69" s="30" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I69" s="30" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J69" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B69" s="28" t="n"/>
+      <c r="C69" s="29" t="n"/>
+      <c r="D69" s="29" t="n"/>
+      <c r="E69" s="30" t="n"/>
+      <c r="F69" s="30" t="n"/>
+      <c r="G69" s="30" t="n"/>
+      <c r="H69" s="30" t="n"/>
+      <c r="I69" s="30" t="n"/>
+      <c r="J69" s="30" t="n"/>
       <c r="K69" s="30" t="n"/>
-      <c r="L69" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="M69" s="30" t="n">
-        <v>6</v>
-      </c>
+      <c r="L69" s="30" t="n"/>
+      <c r="M69" s="30" t="n"/>
       <c r="N69" s="69" t="n"/>
       <c r="O69" s="84" t="n"/>
     </row>
     <row r="70" ht="20" customHeight="1" s="76">
-      <c r="B70" s="31" t="inlineStr">
-        <is>
-          <t>5723717301</t>
-        </is>
-      </c>
-      <c r="C70" s="32" t="inlineStr">
-        <is>
-          <t>Rising Pharma Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="D70" s="32" t="inlineStr">
-        <is>
-          <t>venlafaxine</t>
-        </is>
-      </c>
-      <c r="E70" s="33" t="inlineStr">
-        <is>
-          <t>37.5 mg/1</t>
-        </is>
-      </c>
-      <c r="F70" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G70" s="33" t="inlineStr">
-        <is>
-          <t>EJ3721001A</t>
-        </is>
-      </c>
-      <c r="H70" s="33" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I70" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J70" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B70" s="31" t="n"/>
+      <c r="C70" s="32" t="n"/>
+      <c r="D70" s="32" t="n"/>
+      <c r="E70" s="33" t="n"/>
+      <c r="F70" s="33" t="n"/>
+      <c r="G70" s="33" t="n"/>
+      <c r="H70" s="33" t="n"/>
+      <c r="I70" s="33" t="n"/>
+      <c r="J70" s="33" t="n"/>
       <c r="K70" s="33" t="n"/>
-      <c r="L70" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="M70" s="33" t="n">
-        <v>6</v>
-      </c>
+      <c r="L70" s="33" t="n"/>
+      <c r="M70" s="33" t="n"/>
       <c r="N70" s="69" t="n"/>
       <c r="O70" s="84" t="n"/>
     </row>
     <row r="71" ht="20" customHeight="1" s="76">
-      <c r="B71" s="28" t="inlineStr">
-        <is>
-          <t>1671412101</t>
-        </is>
-      </c>
-      <c r="C71" s="29" t="inlineStr">
-        <is>
-          <t>NorthStar Rx LLC</t>
-        </is>
-      </c>
-      <c r="D71" s="29" t="inlineStr">
-        <is>
-          <t>Pilocarpine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E71" s="30" t="inlineStr">
-        <is>
-          <t>5 mg/1</t>
-        </is>
-      </c>
-      <c r="F71" s="30" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED</t>
-        </is>
-      </c>
-      <c r="G71" s="30" t="inlineStr">
-        <is>
-          <t>PC0520001-A</t>
-        </is>
-      </c>
-      <c r="H71" s="30" t="inlineStr">
-        <is>
-          <t>08/22/31</t>
-        </is>
-      </c>
-      <c r="I71" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J71" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B71" s="28" t="n"/>
+      <c r="C71" s="29" t="n"/>
+      <c r="D71" s="29" t="n"/>
+      <c r="E71" s="30" t="n"/>
+      <c r="F71" s="30" t="n"/>
+      <c r="G71" s="30" t="n"/>
+      <c r="H71" s="30" t="n"/>
+      <c r="I71" s="30" t="n"/>
+      <c r="J71" s="30" t="n"/>
       <c r="K71" s="30" t="n"/>
-      <c r="L71" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="M71" s="30" t="n">
-        <v>6</v>
-      </c>
+      <c r="L71" s="30" t="n"/>
+      <c r="M71" s="30" t="n"/>
       <c r="N71" s="69" t="n"/>
       <c r="O71" s="84" t="n"/>
     </row>
     <row r="72" ht="20" customHeight="1" s="76">
-      <c r="B72" s="31" t="inlineStr">
-        <is>
-          <t>6516276810</t>
-        </is>
-      </c>
-      <c r="C72" s="32" t="inlineStr">
-        <is>
-          <t>Amneal Pharmaceuticals LLC</t>
-        </is>
-      </c>
-      <c r="D72" s="32" t="inlineStr">
-        <is>
-          <t>Warfarin Sodium</t>
-        </is>
-      </c>
-      <c r="E72" s="33" t="inlineStr">
-        <is>
-          <t>7.5 mg/1</t>
-        </is>
-      </c>
-      <c r="F72" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G72" s="33" t="inlineStr">
-        <is>
-          <t>AR220319</t>
-        </is>
-      </c>
-      <c r="H72" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I72" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J72" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B72" s="31" t="n"/>
+      <c r="C72" s="32" t="n"/>
+      <c r="D72" s="32" t="n"/>
+      <c r="E72" s="33" t="n"/>
+      <c r="F72" s="33" t="n"/>
+      <c r="G72" s="33" t="n"/>
+      <c r="H72" s="33" t="n"/>
+      <c r="I72" s="33" t="n"/>
+      <c r="J72" s="33" t="n"/>
       <c r="K72" s="33" t="n"/>
-      <c r="L72" s="33" t="n">
-        <v>7</v>
-      </c>
-      <c r="M72" s="33" t="n">
-        <v>7</v>
-      </c>
+      <c r="L72" s="33" t="n"/>
+      <c r="M72" s="33" t="n"/>
       <c r="N72" s="69" t="n"/>
       <c r="O72" s="84" t="n"/>
     </row>
     <row r="73" ht="20" customHeight="1" s="76">
-      <c r="B73" s="28" t="inlineStr">
-        <is>
-          <t>5199181801</t>
-        </is>
-      </c>
-      <c r="C73" s="29" t="inlineStr">
-        <is>
-          <t>Breckenridge Pharmaceutical, Inc.</t>
-        </is>
-      </c>
-      <c r="D73" s="29" t="inlineStr">
-        <is>
-          <t>propranolol hydrochloride</t>
-        </is>
-      </c>
-      <c r="E73" s="30" t="inlineStr">
-        <is>
-          <t>80 mg/1</t>
-        </is>
-      </c>
-      <c r="F73" s="30" t="inlineStr">
-        <is>
-          <t>CAPSULE, EXTENDED RELEASE</t>
-        </is>
-      </c>
-      <c r="G73" s="30" t="inlineStr">
-        <is>
-          <t>PF37210109</t>
-        </is>
-      </c>
-      <c r="H73" s="30" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="I73" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J73" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B73" s="28" t="n"/>
+      <c r="C73" s="29" t="n"/>
+      <c r="D73" s="29" t="n"/>
+      <c r="E73" s="30" t="n"/>
+      <c r="F73" s="30" t="n"/>
+      <c r="G73" s="30" t="n"/>
+      <c r="H73" s="30" t="n"/>
+      <c r="I73" s="30" t="n"/>
+      <c r="J73" s="30" t="n"/>
       <c r="K73" s="30" t="n"/>
-      <c r="L73" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="M73" s="30" t="n">
-        <v>7</v>
-      </c>
+      <c r="L73" s="30" t="n"/>
+      <c r="M73" s="30" t="n"/>
       <c r="N73" s="69" t="n"/>
       <c r="O73" s="84" t="n"/>
     </row>
     <row r="74" ht="20" customHeight="1" s="76">
-      <c r="B74" s="31" t="inlineStr">
-        <is>
-          <t>7075681430</t>
-        </is>
-      </c>
-      <c r="C74" s="32" t="inlineStr">
-        <is>
-          <t>Lifestar Pharma LLC</t>
-        </is>
-      </c>
-      <c r="D74" s="32" t="inlineStr">
-        <is>
-          <t>Olmesartan Medoxomil and Hydrochlorothiazide</t>
-        </is>
-      </c>
-      <c r="E74" s="33" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="F74" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G74" s="33" t="inlineStr">
-        <is>
-          <t>U21T0163A</t>
-        </is>
-      </c>
-      <c r="H74" s="33" t="inlineStr">
-        <is>
-          <t>09/23/30</t>
-        </is>
-      </c>
-      <c r="I74" s="33" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J74" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B74" s="31" t="n"/>
+      <c r="C74" s="32" t="n"/>
+      <c r="D74" s="32" t="n"/>
+      <c r="E74" s="33" t="n"/>
+      <c r="F74" s="33" t="n"/>
+      <c r="G74" s="33" t="n"/>
+      <c r="H74" s="33" t="n"/>
+      <c r="I74" s="33" t="n"/>
+      <c r="J74" s="33" t="n"/>
       <c r="K74" s="33" t="n"/>
-      <c r="L74" s="33" t="n">
-        <v>7</v>
-      </c>
-      <c r="M74" s="33" t="n">
-        <v>7</v>
-      </c>
+      <c r="L74" s="33" t="n"/>
+      <c r="M74" s="33" t="n"/>
       <c r="N74" s="69" t="n"/>
       <c r="O74" s="84" t="n"/>
     </row>
     <row r="75" ht="20" customHeight="1" s="76">
-      <c r="B75" s="28" t="inlineStr">
-        <is>
-          <t>7248510401</t>
-        </is>
-      </c>
-      <c r="C75" s="29" t="inlineStr">
-        <is>
-          <t>Armas Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="D75" s="29" t="inlineStr">
-        <is>
-          <t>CAFFEINE CITRATE</t>
-        </is>
-      </c>
-      <c r="E75" s="30" t="inlineStr">
-        <is>
-          <t>60 mg/3mL</t>
-        </is>
-      </c>
-      <c r="F75" s="30" t="inlineStr">
-        <is>
-          <t>INJECTION</t>
-        </is>
-      </c>
-      <c r="G75" s="30" t="inlineStr">
-        <is>
-          <t>CDBU0007B</t>
-        </is>
-      </c>
-      <c r="H75" s="30" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I75" s="30" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J75" s="30" t="n">
-        <v>2</v>
-      </c>
+      <c r="B75" s="28" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="30" t="n"/>
+      <c r="F75" s="30" t="n"/>
+      <c r="G75" s="30" t="n"/>
+      <c r="H75" s="30" t="n"/>
+      <c r="I75" s="30" t="n"/>
+      <c r="J75" s="30" t="n"/>
       <c r="K75" s="30" t="n"/>
-      <c r="L75" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="M75" s="30" t="n">
-        <v>14</v>
-      </c>
+      <c r="L75" s="30" t="n"/>
+      <c r="M75" s="30" t="n"/>
       <c r="N75" s="69" t="n"/>
       <c r="O75" s="84" t="n"/>
     </row>
     <row r="76" ht="20" customHeight="1" s="76">
-      <c r="B76" s="31" t="inlineStr">
-        <is>
-          <t>6233263831</t>
-        </is>
-      </c>
-      <c r="C76" s="32" t="inlineStr">
-        <is>
-          <t>Alembic Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="D76" s="32" t="inlineStr">
-        <is>
-          <t>DOXEPIN HYDROCHLORIDE</t>
-        </is>
-      </c>
-      <c r="E76" s="33" t="inlineStr">
-        <is>
-          <t>25 mg/1</t>
-        </is>
-      </c>
-      <c r="F76" s="33" t="inlineStr">
-        <is>
-          <t>CAPSULE</t>
-        </is>
-      </c>
-      <c r="G76" s="33" t="inlineStr">
-        <is>
-          <t>2205002831</t>
-        </is>
-      </c>
-      <c r="H76" s="33" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I76" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J76" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B76" s="31" t="n"/>
+      <c r="C76" s="32" t="n"/>
+      <c r="D76" s="32" t="n"/>
+      <c r="E76" s="33" t="n"/>
+      <c r="F76" s="33" t="n"/>
+      <c r="G76" s="33" t="n"/>
+      <c r="H76" s="33" t="n"/>
+      <c r="I76" s="33" t="n"/>
+      <c r="J76" s="33" t="n"/>
       <c r="K76" s="33" t="n"/>
-      <c r="L76" s="33" t="n">
-        <v>7</v>
-      </c>
-      <c r="M76" s="33" t="n">
-        <v>7</v>
-      </c>
+      <c r="L76" s="33" t="n"/>
+      <c r="M76" s="33" t="n"/>
       <c r="N76" s="69" t="n"/>
       <c r="O76" s="84" t="n"/>
     </row>
     <row r="77" ht="20" customHeight="1" s="76">
-      <c r="B77" s="28" t="inlineStr">
-        <is>
-          <t>1671412101</t>
-        </is>
-      </c>
-      <c r="C77" s="29" t="inlineStr">
-        <is>
-          <t>NorthStar Rx LLC</t>
-        </is>
-      </c>
-      <c r="D77" s="29" t="inlineStr">
-        <is>
-          <t>Pilocarpine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="E77" s="30" t="inlineStr">
-        <is>
-          <t>5 mg/1</t>
-        </is>
-      </c>
-      <c r="F77" s="30" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED</t>
-        </is>
-      </c>
-      <c r="G77" s="30" t="inlineStr">
-        <is>
-          <t>PC0520001-A</t>
-        </is>
-      </c>
-      <c r="H77" s="30" t="inlineStr">
-        <is>
-          <t>08/22/31</t>
-        </is>
-      </c>
-      <c r="I77" s="30" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J77" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B77" s="28" t="n"/>
+      <c r="C77" s="29" t="n"/>
+      <c r="D77" s="29" t="n"/>
+      <c r="E77" s="30" t="n"/>
+      <c r="F77" s="30" t="n"/>
+      <c r="G77" s="30" t="n"/>
+      <c r="H77" s="30" t="n"/>
+      <c r="I77" s="30" t="n"/>
+      <c r="J77" s="30" t="n"/>
       <c r="K77" s="30" t="n"/>
-      <c r="L77" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="M77" s="30" t="n">
-        <v>7</v>
-      </c>
+      <c r="L77" s="30" t="n"/>
+      <c r="M77" s="30" t="n"/>
       <c r="N77" s="69" t="n"/>
       <c r="O77" s="84" t="n"/>
     </row>
     <row r="78" ht="20" customHeight="1" s="76">
-      <c r="B78" s="31" t="inlineStr">
-        <is>
-          <t>5348938701</t>
-        </is>
-      </c>
-      <c r="C78" s="32" t="inlineStr">
-        <is>
-          <t>Sun Pharmaceutical Industries, Inc.</t>
-        </is>
-      </c>
-      <c r="D78" s="32" t="inlineStr">
-        <is>
-          <t>MINOXIDIL</t>
-        </is>
-      </c>
-      <c r="E78" s="33" t="inlineStr">
-        <is>
-          <t>10 mg/1</t>
-        </is>
-      </c>
-      <c r="F78" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G78" s="33" t="inlineStr">
-        <is>
-          <t>P2226</t>
-        </is>
-      </c>
-      <c r="H78" s="33" t="inlineStr">
-        <is>
-          <t>03/24/31</t>
-        </is>
-      </c>
-      <c r="I78" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J78" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B78" s="31" t="n"/>
+      <c r="C78" s="32" t="n"/>
+      <c r="D78" s="32" t="n"/>
+      <c r="E78" s="33" t="n"/>
+      <c r="F78" s="33" t="n"/>
+      <c r="G78" s="33" t="n"/>
+      <c r="H78" s="33" t="n"/>
+      <c r="I78" s="33" t="n"/>
+      <c r="J78" s="33" t="n"/>
       <c r="K78" s="33" t="n"/>
-      <c r="L78" s="33" t="n">
-        <v>7</v>
-      </c>
-      <c r="M78" s="33" t="n">
-        <v>7</v>
-      </c>
+      <c r="L78" s="33" t="n"/>
+      <c r="M78" s="33" t="n"/>
       <c r="N78" s="69" t="n"/>
       <c r="O78" s="84" t="n"/>
     </row>
     <row r="79" ht="20" customHeight="1" s="76">
-      <c r="B79" s="28" t="inlineStr">
-        <is>
-          <t>6846210130</t>
-        </is>
-      </c>
-      <c r="C79" s="29" t="inlineStr">
-        <is>
-          <t>Glenmark Pharmaceuticals Inc., USA</t>
-        </is>
-      </c>
-      <c r="D79" s="29" t="inlineStr">
-        <is>
-          <t>Fluconazole</t>
-        </is>
-      </c>
-      <c r="E79" s="30" t="inlineStr">
-        <is>
-          <t>50 mg/1</t>
-        </is>
-      </c>
-      <c r="F79" s="30" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G79" s="30" t="inlineStr">
-        <is>
-          <t>19220546</t>
-        </is>
-      </c>
-      <c r="H79" s="30" t="inlineStr">
-        <is>
-          <t>12/23/31</t>
-        </is>
-      </c>
-      <c r="I79" s="30" t="inlineStr">
-        <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J79" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B79" s="28" t="n"/>
+      <c r="C79" s="29" t="n"/>
+      <c r="D79" s="29" t="n"/>
+      <c r="E79" s="30" t="n"/>
+      <c r="F79" s="30" t="n"/>
+      <c r="G79" s="30" t="n"/>
+      <c r="H79" s="30" t="n"/>
+      <c r="I79" s="30" t="n"/>
+      <c r="J79" s="30" t="n"/>
       <c r="K79" s="30" t="n"/>
-      <c r="L79" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="M79" s="30" t="n">
-        <v>8</v>
-      </c>
+      <c r="L79" s="30" t="n"/>
+      <c r="M79" s="30" t="n"/>
       <c r="N79" s="69" t="n"/>
       <c r="O79" s="84" t="n"/>
     </row>
     <row r="80" ht="20" customHeight="1" s="76">
-      <c r="B80" s="31" t="inlineStr">
-        <is>
-          <t>6233258530</t>
-        </is>
-      </c>
-      <c r="C80" s="32" t="inlineStr">
-        <is>
-          <t>Alembic Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="D80" s="32" t="inlineStr">
-        <is>
-          <t>Nystatin and Triamcinolone Acetonide</t>
-        </is>
-      </c>
-      <c r="E80" s="33" t="inlineStr">
-        <is>
-          <t>100000 [USP'U]/g</t>
-        </is>
-      </c>
-      <c r="F80" s="33" t="inlineStr">
-        <is>
-          <t>OINTMENT</t>
-        </is>
-      </c>
-      <c r="G80" s="33" t="inlineStr">
-        <is>
-          <t>22011B</t>
-        </is>
-      </c>
-      <c r="H80" s="33" t="inlineStr">
-        <is>
-          <t>01/24/31</t>
-        </is>
-      </c>
-      <c r="I80" s="33" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J80" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B80" s="31" t="n"/>
+      <c r="C80" s="32" t="n"/>
+      <c r="D80" s="32" t="n"/>
+      <c r="E80" s="33" t="n"/>
+      <c r="F80" s="33" t="n"/>
+      <c r="G80" s="33" t="n"/>
+      <c r="H80" s="33" t="n"/>
+      <c r="I80" s="33" t="n"/>
+      <c r="J80" s="33" t="n"/>
       <c r="K80" s="33" t="n"/>
-      <c r="L80" s="33" t="n">
-        <v>8</v>
-      </c>
-      <c r="M80" s="33" t="n">
-        <v>8</v>
-      </c>
+      <c r="L80" s="33" t="n"/>
+      <c r="M80" s="33" t="n"/>
       <c r="N80" s="69" t="n"/>
       <c r="O80" s="84" t="n"/>
     </row>
     <row r="81" ht="20" customHeight="1" s="76">
-      <c r="B81" s="31" t="inlineStr">
-        <is>
-          <t>6846229201</t>
-        </is>
-      </c>
-      <c r="C81" s="32" t="inlineStr">
-        <is>
-          <t>Glenmark Pharmaceuticals Inc., USA</t>
-        </is>
-      </c>
-      <c r="D81" s="32" t="inlineStr">
-        <is>
-          <t>verapamil hydrochloride</t>
-        </is>
-      </c>
-      <c r="E81" s="33" t="inlineStr">
-        <is>
-          <t>120 mg/1</t>
-        </is>
-      </c>
-      <c r="F81" s="33" t="inlineStr">
-        <is>
-          <t>TABLET, FILM COATED, EXTENDED RELEASE</t>
-        </is>
-      </c>
-      <c r="G81" s="33" t="inlineStr">
-        <is>
-          <t>19221202</t>
-        </is>
-      </c>
-      <c r="H81" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I81" s="33" t="inlineStr">
-        <is>
-          <t>100 CT</t>
-        </is>
-      </c>
-      <c r="J81" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B81" s="31" t="n"/>
+      <c r="C81" s="32" t="n"/>
+      <c r="D81" s="32" t="n"/>
+      <c r="E81" s="33" t="n"/>
+      <c r="F81" s="33" t="n"/>
+      <c r="G81" s="33" t="n"/>
+      <c r="H81" s="33" t="n"/>
+      <c r="I81" s="33" t="n"/>
+      <c r="J81" s="33" t="n"/>
       <c r="K81" s="33" t="n"/>
-      <c r="L81" s="33" t="n">
-        <v>8</v>
-      </c>
-      <c r="M81" s="33" t="n">
-        <v>8</v>
-      </c>
+      <c r="L81" s="33" t="n"/>
+      <c r="M81" s="33" t="n"/>
       <c r="N81" s="69" t="n"/>
       <c r="O81" s="84" t="n"/>
     </row>
     <row r="82" ht="20" customHeight="1" s="76">
-      <c r="B82" s="28" t="inlineStr">
-        <is>
-          <t>7248510401</t>
-        </is>
-      </c>
-      <c r="C82" s="29" t="inlineStr">
-        <is>
-          <t>Armas Pharmaceuticals Inc.</t>
-        </is>
-      </c>
-      <c r="D82" s="29" t="inlineStr">
-        <is>
-          <t>CAFFEINE CITRATE</t>
-        </is>
-      </c>
-      <c r="E82" s="30" t="inlineStr">
-        <is>
-          <t>60 mg/3mL</t>
-        </is>
-      </c>
-      <c r="F82" s="30" t="inlineStr">
-        <is>
-          <t>INJECTION</t>
-        </is>
-      </c>
-      <c r="G82" s="30" t="inlineStr">
-        <is>
-          <t>CDBU0007B</t>
-        </is>
-      </c>
-      <c r="H82" s="30" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I82" s="30" t="inlineStr">
-        <is>
-          <t>1 CT</t>
-        </is>
-      </c>
-      <c r="J82" s="30" t="n">
-        <v>1</v>
-      </c>
+      <c r="B82" s="28" t="n"/>
+      <c r="C82" s="29" t="n"/>
+      <c r="D82" s="29" t="n"/>
+      <c r="E82" s="30" t="n"/>
+      <c r="F82" s="30" t="n"/>
+      <c r="G82" s="30" t="n"/>
+      <c r="H82" s="30" t="n"/>
+      <c r="I82" s="30" t="n"/>
+      <c r="J82" s="30" t="n"/>
       <c r="K82" s="30" t="n"/>
-      <c r="L82" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="M82" s="30" t="n">
-        <v>8</v>
-      </c>
+      <c r="L82" s="30" t="n"/>
+      <c r="M82" s="30" t="n"/>
       <c r="N82" s="69" t="n"/>
       <c r="O82" s="84" t="n"/>
     </row>
     <row r="83" ht="20" customHeight="1" s="76">
-      <c r="B83" s="31" t="inlineStr">
-        <is>
-          <t>1366809390</t>
-        </is>
-      </c>
-      <c r="C83" s="32" t="inlineStr">
-        <is>
-          <t>Torrent Pharmaceuticals Limited</t>
-        </is>
-      </c>
-      <c r="D83" s="32" t="inlineStr">
-        <is>
-          <t>Pramipexole Dihydrochloride</t>
-        </is>
-      </c>
-      <c r="E83" s="33" t="inlineStr">
-        <is>
-          <t>.5 mg/1</t>
-        </is>
-      </c>
-      <c r="F83" s="33" t="inlineStr">
-        <is>
-          <t>TABLET</t>
-        </is>
-      </c>
-      <c r="G83" s="33" t="inlineStr">
-        <is>
-          <t>4DF2J004</t>
-        </is>
-      </c>
-      <c r="H83" s="33" t="inlineStr">
-        <is>
-          <t>02/24/29</t>
-        </is>
-      </c>
-      <c r="I83" s="33" t="inlineStr">
-        <is>
-          <t>90 CT</t>
-        </is>
-      </c>
-      <c r="J83" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="B83" s="31" t="n"/>
+      <c r="C83" s="32" t="n"/>
+      <c r="D83" s="32" t="n"/>
+      <c r="E83" s="33" t="n"/>
+      <c r="F83" s="33" t="n"/>
+      <c r="G83" s="33" t="n"/>
+      <c r="H83" s="33" t="n"/>
+      <c r="I83" s="33" t="n"/>
+      <c r="J83" s="33" t="n"/>
       <c r="K83" s="33" t="n"/>
-      <c r="L83" s="33" t="n">
-        <v>8</v>
-      </c>
-      <c r="M83" s="33" t="n">
-        <v>8</v>
-      </c>
+      <c r="L83" s="33" t="n"/>
+      <c r="M83" s="33" t="n"/>
       <c r="N83" s="69" t="n"/>
     </row>
     <row r="84" ht="20" customHeight="1" s="76">

--- a/docs/invoice12.xlsx
+++ b/docs/invoice12.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Invoice Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2121,7 +2121,7 @@
       <c r="A5" s="7" t="n"/>
       <c r="B5" s="52" t="inlineStr">
         <is>
-          <t>02/29/2024</t>
+          <t>03/12/2024</t>
         </is>
       </c>
       <c r="D5" s="88" t="n"/>
@@ -2134,7 +2134,7 @@
       <c r="K5" s="83" t="n"/>
       <c r="L5" s="96" t="inlineStr">
         <is>
-          <t>QR02292024AP101</t>
+          <t>QR03122024AP01</t>
         </is>
       </c>
       <c r="M5" s="97" t="n"/>
@@ -2194,7 +2194,7 @@
       <c r="A10" s="36" t="n"/>
       <c r="B10" s="78" t="inlineStr">
         <is>
-          <t>AUTREY PHARMACY 1</t>
+          <t>Alamo Pharmacy IPBG</t>
         </is>
       </c>
       <c r="D10" s="58" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="E10" s="77" t="inlineStr">
         <is>
-          <t>AUTREY PHARMACY 1</t>
+          <t>Alamo Pharmacy IPBG</t>
         </is>
       </c>
       <c r="H10" s="99" t="n"/>
@@ -2216,7 +2216,7 @@
       <c r="A11" s="36" t="n"/>
       <c r="B11" s="78" t="inlineStr">
         <is>
-          <t>1205 CENTRAL BLVD</t>
+          <t>BROWNSVILLE TX 78521-3212</t>
         </is>
       </c>
       <c r="D11" s="58" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E11" s="77" t="inlineStr">
         <is>
-          <t>1205 CENTRAL BLVD</t>
+          <t>BROWNSVILLE TX 78521-3212</t>
         </is>
       </c>
       <c r="H11" s="82" t="n"/>
@@ -2236,21 +2236,13 @@
     </row>
     <row r="12" ht="18" customHeight="1" s="76">
       <c r="A12" s="36" t="n"/>
-      <c r="B12" s="78" t="inlineStr">
-        <is>
-          <t>BROWNSVILLE, TX, 78520</t>
-        </is>
-      </c>
+      <c r="B12" s="78" t="inlineStr"/>
       <c r="D12" s="58" t="inlineStr">
         <is>
           <t>WHITESTONE, NY,11357</t>
         </is>
       </c>
-      <c r="E12" s="77" t="inlineStr">
-        <is>
-          <t>BROWNSVILLE, TX, 78520</t>
-        </is>
-      </c>
+      <c r="E12" s="77" t="inlineStr"/>
       <c r="H12" s="82" t="n"/>
       <c r="L12" s="12" t="n"/>
       <c r="M12" s="12" t="n"/>
@@ -2282,7 +2274,7 @@
       <c r="A14" s="36" t="n"/>
       <c r="B14" s="78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phone: 956-548-0801, fax: </t>
+          <t xml:space="preserve">Phone: , fax: </t>
         </is>
       </c>
       <c r="D14" s="77" t="inlineStr">
@@ -2292,7 +2284,7 @@
       </c>
       <c r="E14" s="77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phone: 956-548-0801, fax: </t>
+          <t xml:space="preserve">Phone: , fax: </t>
         </is>
       </c>
       <c r="H14" s="75" t="n"/>
@@ -2304,7 +2296,7 @@
       <c r="A15" s="36" t="n"/>
       <c r="B15" s="78" t="inlineStr">
         <is>
-          <t>DEA: FA3704358, Exp: 06/30/2023</t>
+          <t>DEA: FU7640661, Exp: 06/30/2024</t>
         </is>
       </c>
       <c r="D15" s="77" t="inlineStr">
@@ -2314,7 +2306,7 @@
       </c>
       <c r="E15" s="77" t="inlineStr">
         <is>
-          <t>DEA: FA3704358, Exp: 06/30/2023</t>
+          <t>DEA: FU7640661, Exp: 06/30/2024</t>
         </is>
       </c>
       <c r="H15" s="75" t="n"/>
@@ -2326,13 +2318,13 @@
       <c r="A16" s="36" t="n"/>
       <c r="B16" s="78" t="inlineStr">
         <is>
-          <t>Authorized Classes: 2, 2N, 3, 3N, 4. 5</t>
+          <t xml:space="preserve">Authorized Classes: </t>
         </is>
       </c>
       <c r="D16" s="77" t="n"/>
       <c r="E16" s="77" t="inlineStr">
         <is>
-          <t>Authorized Classes: 2, 2N, 3, 3N, 4. 5</t>
+          <t xml:space="preserve">Authorized Classes: </t>
         </is>
       </c>
       <c r="H16" s="75" t="n"/>
@@ -2430,57 +2422,53 @@
       <c r="A20" s="37" t="n"/>
       <c r="B20" s="28" t="inlineStr">
         <is>
-          <t>47335037983</t>
+          <t>6787743305</t>
         </is>
       </c>
       <c r="C20" s="29" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries, Inc.</t>
+          <t>Ascend Laboratories, LLC</t>
         </is>
       </c>
       <c r="D20" s="29" t="inlineStr">
         <is>
-          <t>Cinacalcet</t>
+          <t>Aripiprazole</t>
         </is>
       </c>
       <c r="E20" s="30" t="inlineStr">
         <is>
-          <t>30 mg/1</t>
+          <t>15 mg/1</t>
         </is>
       </c>
       <c r="F20" s="30" t="inlineStr">
         <is>
-          <t>TABLET, FILM COATED</t>
+          <t>TABLET</t>
         </is>
       </c>
       <c r="G20" s="30" t="inlineStr">
         <is>
-          <t>DND0467A</t>
+          <t>22140477</t>
         </is>
       </c>
       <c r="H20" s="30" t="inlineStr">
         <is>
-          <t>02/24</t>
+          <t>01/24/31</t>
         </is>
       </c>
       <c r="I20" s="30" t="inlineStr">
         <is>
-          <t>30 CT</t>
-        </is>
-      </c>
-      <c r="J20" s="30" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+          <t>500 CT</t>
+        </is>
+      </c>
+      <c r="J20" s="30" t="n">
+        <v>1</v>
       </c>
       <c r="K20" s="30" t="n"/>
-      <c r="L20" s="30" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
+      <c r="L20" s="30" t="n">
+        <v>1</v>
       </c>
       <c r="M20" s="30" t="n">
-        <v>6720</v>
+        <v>1</v>
       </c>
       <c r="N20" s="19" t="n"/>
     </row>
@@ -3241,7 +3229,7 @@
       <c r="K66" s="33" t="n"/>
       <c r="L66" s="33" t="n"/>
       <c r="M66" s="33" t="n">
-        <v>6720</v>
+        <v>1</v>
       </c>
       <c r="N66" s="69" t="n"/>
       <c r="O66" s="84" t="n"/>
